--- a/CSV-PWM-Table.xlsx
+++ b/CSV-PWM-Table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Massimo\Priv\Ebk\TSDZ2\BT\TSDZ2_ESP32\TSDZ2-Smart-EBike\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Massimo\Priv\Ebk\TSDZ2\BT\TSDZ2_ESP32\TSDZ2-Smart-EBike\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC91BAB-C0E4-42E2-B8C0-A57178B9D7C7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48BE021-B143-4576-8934-1421ACC5FB17}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1584" yWindow="564" windowWidth="20892" windowHeight="11256" xr2:uid="{0FECAB06-F1EB-47DE-95C0-CE04C98C7007}"/>
+    <workbookView xWindow="240" yWindow="276" windowWidth="22800" windowHeight="12684" xr2:uid="{0FECAB06-F1EB-47DE-95C0-CE04C98C7007}"/>
   </bookViews>
   <sheets>
     <sheet name="Midpoint Clamp (CSV PWM)" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Zero</t>
   </si>
@@ -53,6 +53,21 @@
   <si>
     <t>Triang. Wave equation</t>
   </si>
+  <si>
+    <t>Counter Max</t>
+  </si>
+  <si>
+    <t>Check</t>
+  </si>
+  <si>
+    <t>Scale</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
 </sst>
 </file>
 
@@ -61,8 +76,23 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -78,7 +108,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -86,13 +116,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -135,7 +187,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Midpoint Clamp (CSV PWM)'!$B$2</c:f>
+              <c:f>'Midpoint Clamp (CSV PWM)'!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -158,7 +210,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Midpoint Clamp (CSV PWM)'!$A$3:$A$258</c:f>
+              <c:f>'Midpoint Clamp (CSV PWM)'!$A$4:$A$259</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="256"/>
@@ -935,7 +987,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Midpoint Clamp (CSV PWM)'!$B$3:$B$258</c:f>
+              <c:f>'Midpoint Clamp (CSV PWM)'!$B$4:$B$259</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="256"/>
@@ -1722,7 +1774,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Midpoint Clamp (CSV PWM)'!$C$2</c:f>
+              <c:f>'Midpoint Clamp (CSV PWM)'!$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1745,7 +1797,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Midpoint Clamp (CSV PWM)'!$A$3:$A$258</c:f>
+              <c:f>'Midpoint Clamp (CSV PWM)'!$A$4:$A$259</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="256"/>
@@ -2522,7 +2574,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Midpoint Clamp (CSV PWM)'!$C$3:$C$258</c:f>
+              <c:f>'Midpoint Clamp (CSV PWM)'!$C$4:$C$259</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="256"/>
@@ -3309,7 +3361,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Midpoint Clamp (CSV PWM)'!$D$2</c:f>
+              <c:f>'Midpoint Clamp (CSV PWM)'!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3332,7 +3384,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Midpoint Clamp (CSV PWM)'!$A$3:$A$258</c:f>
+              <c:f>'Midpoint Clamp (CSV PWM)'!$A$4:$A$259</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="256"/>
@@ -4109,7 +4161,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Midpoint Clamp (CSV PWM)'!$D$3:$D$258</c:f>
+              <c:f>'Midpoint Clamp (CSV PWM)'!$D$4:$D$259</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="256"/>
@@ -5653,16 +5705,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5989,381 +6041,381 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F520312-DA36-4F57-882C-348F0CE3BEC0}">
-  <dimension ref="A1:I258"/>
+  <dimension ref="A1:I259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A236" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G258"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C1" s="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C2" s="1">
         <f>1/4</f>
         <v>0.25</v>
       </c>
-      <c r="E1">
-        <f>MIN(E3:E258)</f>
+      <c r="E2">
+        <f>MIN(E4:E259)</f>
         <v>-0.86629626434835505</v>
       </c>
-      <c r="F1">
-        <f>MAX(E3:E258)</f>
+      <c r="F2">
+        <f>MAX(E4:E259)</f>
         <v>0.86629626434835505</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+      <c r="G2">
+        <f>ROUND(H2*256/254,0)</f>
+        <v>212</v>
+      </c>
+      <c r="H2" s="2">
+        <v>210</v>
+      </c>
+      <c r="I2">
+        <f>G2*254/256</f>
+        <v>210.34375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>65</v>
       </c>
-      <c r="B3">
-        <f>SIN(PI()*(A3/128))</f>
+      <c r="B4">
+        <f>SIN(PI()*(A4/128))</f>
         <v>0.99969881869620425</v>
       </c>
-      <c r="C3">
-        <f>(2*$C$1/PI())*ASIN(SIN(3*A3*PI()/128))</f>
+      <c r="C4">
+        <f>(2*$C$2/PI())*ASIN(SIN(3*A4*PI()/128))</f>
         <v>-0.23828125</v>
       </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D66" si="0">(E3-$E$1)/($F$1-$E$1)</f>
+      <c r="D4">
+        <f t="shared" ref="D4:D67" si="0">(E4-$E$2)/($F$2-$E$2)</f>
         <v>0.93946718924671657</v>
       </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E66" si="1">B3+C3</f>
+      <c r="E4">
+        <f t="shared" ref="E4:E67" si="1">B4+C4</f>
         <v>0.76141756869620425</v>
       </c>
-      <c r="F3">
-        <f>ROUND(D3*255,0)</f>
+      <c r="F4">
+        <f>ROUND(D4*255,0)</f>
         <v>240</v>
       </c>
-      <c r="G3">
-        <f>ROUND(D3*212,0)</f>
+      <c r="G4">
+        <f>ROUND(D4*$G$2,0)</f>
         <v>199</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>66</v>
       </c>
-      <c r="B4">
-        <f t="shared" ref="B4:B67" si="2">SIN(PI()*(A4/128))</f>
+      <c r="B5">
+        <f t="shared" ref="B5:B68" si="2">SIN(PI()*(A5/128))</f>
         <v>0.99879545620517241</v>
       </c>
-      <c r="C4">
-        <f t="shared" ref="C4:C67" si="3">(2*$C$1/PI())*ASIN(SIN(3*A4*PI()/128))</f>
+      <c r="C5">
+        <f t="shared" ref="C5:C68" si="3">(2*$C$2/PI())*ASIN(SIN(3*A5*PI()/128))</f>
         <v>-0.22656249999999994</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <f t="shared" si="0"/>
         <v>0.9457095037723966</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <f t="shared" si="1"/>
         <v>0.77223295620517241</v>
       </c>
-      <c r="F4">
-        <f t="shared" ref="F4:F67" si="4">ROUND(D4*255,0)</f>
+      <c r="F5">
+        <f t="shared" ref="F5:F68" si="4">ROUND(D5*255,0)</f>
         <v>241</v>
       </c>
-      <c r="G4">
-        <f t="shared" ref="G4:G67" si="5">ROUND(D4*212,0)</f>
+      <c r="G5">
+        <f t="shared" ref="G5:G68" si="5">ROUND(D5*$G$2,0)</f>
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>67</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <f t="shared" si="2"/>
         <v>0.99729045667869021</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <f t="shared" si="3"/>
         <v>-0.21484374999999994</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <f t="shared" si="0"/>
         <v>0.95160457159956824</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <f t="shared" si="1"/>
         <v>0.78244670667869021</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <f t="shared" si="4"/>
         <v>243</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <f t="shared" si="5"/>
         <v>202</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>68</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <f t="shared" si="2"/>
         <v>0.99518472667219693</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <f t="shared" si="3"/>
         <v>-0.20312500000000008</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <f t="shared" si="0"/>
         <v>0.95715291596460916</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <f t="shared" si="1"/>
         <v>0.79205972667219682</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <f t="shared" si="4"/>
         <v>244</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <f t="shared" si="5"/>
         <v>203</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>69</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <f t="shared" si="2"/>
         <v>0.99247953459870997</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <f t="shared" si="3"/>
         <v>-0.19140625000000011</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <f t="shared" si="0"/>
         <v>0.96235526895714651</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <f t="shared" si="1"/>
         <v>0.80107328459870986</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <f t="shared" si="4"/>
         <v>245</v>
       </c>
-      <c r="G7">
+      <c r="G8">
         <f t="shared" si="5"/>
         <v>204</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>70</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <f t="shared" si="2"/>
         <v>0.98917650996478101</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <f t="shared" si="3"/>
         <v>-0.17968750000000003</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <f t="shared" si="0"/>
         <v>0.9672125710790721</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <f t="shared" si="1"/>
         <v>0.80948900996478101</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <f t="shared" si="4"/>
         <v>247</v>
       </c>
-      <c r="G8">
+      <c r="G9">
         <f t="shared" si="5"/>
         <v>205</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>71</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <f t="shared" si="2"/>
         <v>0.98527764238894122</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <f t="shared" si="3"/>
         <v>-0.16796875000000003</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <f t="shared" si="0"/>
         <v>0.97172597067802025</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <f t="shared" si="1"/>
         <v>0.81730889238894122</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <f t="shared" si="4"/>
         <v>248</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <f t="shared" si="5"/>
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>72</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <f t="shared" si="2"/>
         <v>0.98078528040323043</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <f t="shared" si="3"/>
         <v>-0.15625000000000006</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <f t="shared" si="0"/>
         <v>0.97589682325564564</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <f t="shared" si="1"/>
         <v>0.82453528040323043</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <f t="shared" si="4"/>
         <v>249</v>
       </c>
-      <c r="G10">
+      <c r="G11">
         <f t="shared" si="5"/>
         <v>207</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>73</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <f t="shared" si="2"/>
         <v>0.97570213003852857</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <f t="shared" si="3"/>
         <v>-0.14453124999999997</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <f t="shared" si="0"/>
         <v>0.97972669065112006</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <f t="shared" si="1"/>
         <v>0.83117088003852857</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <f t="shared" si="4"/>
         <v>250</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="5"/>
-        <v>208</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>74</v>
-      </c>
-      <c r="B12">
-        <f t="shared" si="2"/>
-        <v>0.97003125319454397</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="3"/>
-        <v>-0.13281250000000003</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>0.98321734010033868</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="1"/>
-        <v>0.83721875319454397</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="4"/>
-        <v>251</v>
       </c>
       <c r="G12">
         <f t="shared" si="5"/>
         <v>208</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B13">
         <f t="shared" si="2"/>
-        <v>0.96377606579543984</v>
+        <v>0.97003125319454397</v>
       </c>
       <c r="C13">
         <f t="shared" si="3"/>
-        <v>-0.12109375000000006</v>
+        <v>-0.13281250000000003</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>0.98637074317140327</v>
+        <v>0.98321734010033868</v>
       </c>
       <c r="E13">
         <f t="shared" si="1"/>
-        <v>0.84268231579543973</v>
+        <v>0.83721875319454397</v>
       </c>
       <c r="F13">
         <f t="shared" si="4"/>
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G13">
         <f t="shared" si="5"/>
-        <v>209</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B14">
         <f t="shared" si="2"/>
-        <v>0.95694033573220894</v>
+        <v>0.96377606579543984</v>
       </c>
       <c r="C14">
         <f t="shared" si="3"/>
-        <v>-0.10937500000000011</v>
+        <v>-0.12109375000000006</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>0.98918907457702365</v>
+        <v>0.98637074317140327</v>
       </c>
       <c r="E14">
         <f t="shared" si="1"/>
-        <v>0.84756533573220882</v>
+        <v>0.84268231579543973</v>
       </c>
       <c r="F14">
         <f t="shared" si="4"/>
@@ -6371,57 +6423,57 @@
       </c>
       <c r="G14">
         <f t="shared" si="5"/>
-        <v>210</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B15">
         <f t="shared" si="2"/>
-        <v>0.94952818059303667</v>
+        <v>0.95694033573220894</v>
       </c>
       <c r="C15">
         <f t="shared" si="3"/>
-        <v>-9.7656249999999986E-2</v>
+        <v>-0.10937500000000011</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>0.99167471086455128</v>
+        <v>0.98918907457702365</v>
       </c>
       <c r="E15">
         <f t="shared" si="1"/>
-        <v>0.85187193059303667</v>
+        <v>0.84756533573220882</v>
       </c>
       <c r="F15">
         <f t="shared" si="4"/>
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G15">
         <f t="shared" si="5"/>
         <v>210</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B16">
         <f t="shared" si="2"/>
-        <v>0.94154406518302081</v>
+        <v>0.94952818059303667</v>
       </c>
       <c r="C16">
         <f t="shared" si="3"/>
-        <v>-8.5937500000000028E-2</v>
+        <v>-9.7656249999999986E-2</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>0.99383022898443685</v>
+        <v>0.99167471086455128</v>
       </c>
       <c r="E16">
         <f t="shared" si="1"/>
-        <v>0.85560656518302081</v>
+        <v>0.85187193059303667</v>
       </c>
       <c r="F16">
         <f t="shared" si="4"/>
@@ -6429,32 +6481,32 @@
       </c>
       <c r="G16">
         <f t="shared" si="5"/>
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B17">
         <f t="shared" si="2"/>
-        <v>0.93299279883473885</v>
+        <v>0.94154406518302081</v>
       </c>
       <c r="C17">
         <f t="shared" si="3"/>
-        <v>-7.4218750000000069E-2</v>
+        <v>-8.5937500000000028E-2</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>0.99565840473797107</v>
+        <v>0.99383022898443685</v>
       </c>
       <c r="E17">
         <f t="shared" si="1"/>
-        <v>0.85877404883473873</v>
+        <v>0.85560656518302081</v>
       </c>
       <c r="F17">
         <f t="shared" si="4"/>
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G17">
         <f t="shared" si="5"/>
@@ -6463,81 +6515,81 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B18">
         <f t="shared" si="2"/>
-        <v>0.92387953251128674</v>
+        <v>0.93299279883473885</v>
       </c>
       <c r="C18">
         <f t="shared" si="3"/>
-        <v>-6.2500000000000111E-2</v>
+        <v>-7.4218750000000069E-2</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>0.9971622111052465</v>
+        <v>0.99565840473797107</v>
       </c>
       <c r="E18">
         <f t="shared" si="1"/>
-        <v>0.86137953251128663</v>
+        <v>0.85877404883473873</v>
       </c>
       <c r="F18">
         <f t="shared" si="4"/>
         <v>254</v>
       </c>
       <c r="G18">
+        <f>ROUND(D18*$G$2,0)</f>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>80</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="2"/>
+        <v>0.92387953251128674</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="3"/>
+        <v>-6.2500000000000111E-2</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>0.9971622111052465</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>0.86137953251128663</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="4"/>
+        <v>254</v>
+      </c>
+      <c r="G19">
         <f t="shared" si="5"/>
         <v>211</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>81</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <f t="shared" si="2"/>
         <v>0.91420975570353069</v>
       </c>
-      <c r="C19">
+      <c r="C20">
         <f t="shared" si="3"/>
         <v>-5.0781250000000007E-2</v>
       </c>
-      <c r="D19">
+      <c r="D20">
         <f t="shared" si="0"/>
         <v>0.99834481645434459</v>
       </c>
-      <c r="E19">
+      <c r="E20">
         <f t="shared" si="1"/>
         <v>0.86342850570353069</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="4"/>
-        <v>255</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="5"/>
-        <v>212</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>82</v>
-      </c>
-      <c r="B20">
-        <f t="shared" si="2"/>
-        <v>0.90398929312344345</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="3"/>
-        <v>-3.9062500000000049E-2</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="0"/>
-        <v>0.99920958263282955</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="1"/>
-        <v>0.86492679312344345</v>
       </c>
       <c r="F20">
         <f t="shared" si="4"/>
@@ -6550,23 +6602,23 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B21">
         <f t="shared" si="2"/>
-        <v>0.89322430119551521</v>
+        <v>0.90398929312344345</v>
       </c>
       <c r="C21">
         <f t="shared" si="3"/>
-        <v>-2.734375000000009E-2</v>
+        <v>-3.9062500000000049E-2</v>
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
-        <v>0.99976006294269737</v>
+        <v>0.99920958263282955</v>
       </c>
       <c r="E21">
         <f t="shared" si="1"/>
-        <v>0.8658805511955151</v>
+        <v>0.86492679312344345</v>
       </c>
       <c r="F21">
         <f t="shared" si="4"/>
@@ -6579,23 +6631,23 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B22">
         <f t="shared" si="2"/>
-        <v>0.88192126434835505</v>
+        <v>0.89322430119551521</v>
       </c>
       <c r="C22">
         <f t="shared" si="3"/>
-        <v>-1.5624999999999984E-2</v>
+        <v>-2.734375000000009E-2</v>
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.99976006294269737</v>
       </c>
       <c r="E22">
         <f t="shared" si="1"/>
-        <v>0.86629626434835505</v>
+        <v>0.8658805511955151</v>
       </c>
       <c r="F22">
         <f t="shared" si="4"/>
@@ -6608,23 +6660,23 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B23">
         <f t="shared" si="2"/>
-        <v>0.87008699110871146</v>
+        <v>0.88192126434835505</v>
       </c>
       <c r="C23">
         <f t="shared" si="3"/>
-        <v>-3.9062500000000252E-3</v>
+        <v>-1.5624999999999984E-2</v>
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
-        <v>0.99993332348043173</v>
+        <v>1</v>
       </c>
       <c r="E23">
         <f t="shared" si="1"/>
-        <v>0.86618074110871146</v>
+        <v>0.86629626434835505</v>
       </c>
       <c r="F23">
         <f t="shared" si="4"/>
@@ -6637,23 +6689,23 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B24">
         <f t="shared" si="2"/>
-        <v>0.85772861000027212</v>
+        <v>0.87008699110871146</v>
       </c>
       <c r="C24">
         <f t="shared" si="3"/>
-        <v>7.8124999999999341E-3</v>
+        <v>-3.9062500000000252E-3</v>
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
-        <v>0.99956414775224089</v>
+        <v>0.99993332348043173</v>
       </c>
       <c r="E24">
         <f t="shared" si="1"/>
-        <v>0.86554111000027201</v>
+        <v>0.86618074110871146</v>
       </c>
       <c r="F24">
         <f t="shared" si="4"/>
@@ -6666,23 +6718,23 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B25">
         <f t="shared" si="2"/>
-        <v>0.84485356524970723</v>
+        <v>0.85772861000027212</v>
       </c>
       <c r="C25">
         <f t="shared" si="3"/>
-        <v>1.9531249999999896E-2</v>
+        <v>7.8124999999999341E-3</v>
       </c>
       <c r="D25">
         <f t="shared" si="0"/>
-        <v>0.99889676939788841</v>
+        <v>0.99956414775224089</v>
       </c>
       <c r="E25">
         <f t="shared" si="1"/>
-        <v>0.86438481524970712</v>
+        <v>0.86554111000027201</v>
       </c>
       <c r="F25">
         <f t="shared" si="4"/>
@@ -6695,27 +6747,27 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B26">
         <f t="shared" si="2"/>
-        <v>0.83146961230254546</v>
+        <v>0.84485356524970723</v>
       </c>
       <c r="C26">
         <f t="shared" si="3"/>
-        <v>3.1249999999999997E-2</v>
+        <v>1.9531249999999896E-2</v>
       </c>
       <c r="D26">
         <f t="shared" si="0"/>
-        <v>0.99793566462594641</v>
+        <v>0.99889676939788841</v>
       </c>
       <c r="E26">
         <f t="shared" si="1"/>
-        <v>0.86271961230254546</v>
+        <v>0.86438481524970712</v>
       </c>
       <c r="F26">
         <f t="shared" si="4"/>
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G26">
         <f t="shared" si="5"/>
@@ -6724,23 +6776,23 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B27">
         <f t="shared" si="2"/>
-        <v>0.81758481315158371</v>
+        <v>0.83146961230254546</v>
       </c>
       <c r="C27">
         <f t="shared" si="3"/>
-        <v>4.2968749999999958E-2</v>
+        <v>3.1249999999999997E-2</v>
       </c>
       <c r="D27">
         <f t="shared" si="0"/>
-        <v>0.99668548657479727</v>
+        <v>0.99793566462594641</v>
       </c>
       <c r="E27">
         <f t="shared" si="1"/>
-        <v>0.86055356315158371</v>
+        <v>0.86271961230254546</v>
       </c>
       <c r="F27">
         <f t="shared" si="4"/>
@@ -6748,95 +6800,92 @@
       </c>
       <c r="G27">
         <f t="shared" si="5"/>
-        <v>211</v>
-      </c>
-      <c r="I27" t="s">
-        <v>6</v>
+        <v>212</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B28">
         <f t="shared" si="2"/>
-        <v>0.80320753148064494</v>
+        <v>0.81758481315158371</v>
       </c>
       <c r="C28">
         <f t="shared" si="3"/>
-        <v>5.4687499999999924E-2</v>
+        <v>4.2968749999999958E-2</v>
       </c>
       <c r="D28">
         <f t="shared" si="0"/>
-        <v>0.99515106250975816</v>
+        <v>0.99668548657479727</v>
       </c>
       <c r="E28">
         <f t="shared" si="1"/>
-        <v>0.85789503148064483</v>
+        <v>0.86055356315158371</v>
       </c>
       <c r="F28">
         <f t="shared" si="4"/>
         <v>254</v>
       </c>
       <c r="G28">
-        <f t="shared" si="5"/>
+        <f>ROUND(D28*$G$2,0)</f>
         <v>211</v>
       </c>
       <c r="I28" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B29">
         <f t="shared" si="2"/>
-        <v>0.78834642762660634</v>
+        <v>0.80320753148064494</v>
       </c>
       <c r="C29">
         <f t="shared" si="3"/>
-        <v>6.6406250000000028E-2</v>
+        <v>5.4687499999999924E-2</v>
       </c>
       <c r="D29">
         <f t="shared" si="0"/>
-        <v>0.99333739091531692</v>
+        <v>0.99515106250975816</v>
       </c>
       <c r="E29">
         <f t="shared" si="1"/>
-        <v>0.85475267762660634</v>
+        <v>0.85789503148064483</v>
       </c>
       <c r="F29">
         <f t="shared" si="4"/>
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G29">
         <f t="shared" si="5"/>
         <v>211</v>
       </c>
       <c r="I29" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B30">
         <f t="shared" si="2"/>
-        <v>0.7730104533627371</v>
+        <v>0.78834642762660634</v>
       </c>
       <c r="C30">
         <f t="shared" si="3"/>
-        <v>7.8124999999999986E-2</v>
+        <v>6.6406250000000028E-2</v>
       </c>
       <c r="D30">
         <f t="shared" si="0"/>
-        <v>0.99124963848423031</v>
+        <v>0.99333739091531692</v>
       </c>
       <c r="E30">
         <f t="shared" si="1"/>
-        <v>0.8511354533627371</v>
+        <v>0.85475267762660634</v>
       </c>
       <c r="F30">
         <f t="shared" si="4"/>
@@ -6844,89 +6893,92 @@
       </c>
       <c r="G30">
         <f t="shared" si="5"/>
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I30" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B31">
         <f t="shared" si="2"/>
-        <v>0.75720884650648468</v>
+        <v>0.7730104533627371</v>
       </c>
       <c r="C31">
         <f t="shared" si="3"/>
-        <v>8.9843749999999931E-2</v>
+        <v>7.8124999999999986E-2</v>
       </c>
       <c r="D31">
         <f t="shared" si="0"/>
-        <v>0.98889313700530279</v>
+        <v>0.99124963848423031</v>
       </c>
       <c r="E31">
         <f t="shared" si="1"/>
-        <v>0.84705259650648457</v>
+        <v>0.8511354533627371</v>
       </c>
       <c r="F31">
         <f t="shared" si="4"/>
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G31">
         <f t="shared" si="5"/>
         <v>210</v>
       </c>
+      <c r="I31" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B32">
         <f t="shared" si="2"/>
-        <v>0.74095112535495899</v>
+        <v>0.75720884650648468</v>
       </c>
       <c r="C32">
         <f t="shared" si="3"/>
-        <v>0.1015624999999999</v>
+        <v>8.9843749999999931E-2</v>
       </c>
       <c r="D32">
         <f t="shared" si="0"/>
-        <v>0.98627338015171639</v>
+        <v>0.98889313700530279</v>
       </c>
       <c r="E32">
         <f t="shared" si="1"/>
-        <v>0.84251362535495888</v>
+        <v>0.84705259650648457</v>
       </c>
       <c r="F32">
         <f t="shared" si="4"/>
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G32">
         <f t="shared" si="5"/>
-        <v>209</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B33">
         <f t="shared" si="2"/>
-        <v>0.72424708295146689</v>
+        <v>0.74095112535495899</v>
       </c>
       <c r="C33">
         <f t="shared" si="3"/>
-        <v>0.11328125000000001</v>
+        <v>0.1015624999999999</v>
       </c>
       <c r="D33">
         <f t="shared" si="0"/>
-        <v>0.98339602017184746</v>
+        <v>0.98627338015171639</v>
       </c>
       <c r="E33">
         <f t="shared" si="1"/>
-        <v>0.83752833295146689</v>
+        <v>0.84251362535495888</v>
       </c>
       <c r="F33">
         <f t="shared" si="4"/>
@@ -6934,1838 +6986,1830 @@
       </c>
       <c r="G33">
         <f t="shared" si="5"/>
-        <v>208</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B34">
         <f t="shared" si="2"/>
-        <v>0.70710678118654757</v>
+        <v>0.72424708295146689</v>
       </c>
       <c r="C34">
         <f t="shared" si="3"/>
-        <v>0.12499999999999994</v>
+        <v>0.11328125000000001</v>
       </c>
       <c r="D34">
         <f t="shared" si="0"/>
-        <v>0.98026686448456191</v>
+        <v>0.98339602017184746</v>
       </c>
       <c r="E34">
         <f t="shared" si="1"/>
-        <v>0.83210678118654746</v>
+        <v>0.83752833295146689</v>
       </c>
       <c r="F34">
         <f t="shared" si="4"/>
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G34">
         <f t="shared" si="5"/>
         <v>208</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B35">
         <f t="shared" si="2"/>
-        <v>0.68954054473706705</v>
+        <v>0.70710678118654757</v>
       </c>
       <c r="C35">
         <f t="shared" si="3"/>
-        <v>0.13671874999999992</v>
+        <v>0.12499999999999994</v>
       </c>
       <c r="D35">
         <f t="shared" si="0"/>
-        <v>0.97689187218104612</v>
+        <v>0.98026686448456191</v>
       </c>
       <c r="E35">
         <f t="shared" si="1"/>
-        <v>0.82625929473706694</v>
+        <v>0.83210678118654746</v>
       </c>
       <c r="F35">
         <f t="shared" si="4"/>
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G35">
         <f t="shared" si="5"/>
-        <v>207</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B36">
         <f t="shared" si="2"/>
-        <v>0.67155895484701855</v>
+        <v>0.68954054473706705</v>
       </c>
       <c r="C36">
         <f t="shared" si="3"/>
-        <v>0.1484375</v>
+        <v>0.13671874999999992</v>
       </c>
       <c r="D36">
         <f t="shared" si="0"/>
-        <v>0.97327715043527052</v>
+        <v>0.97689187218104612</v>
       </c>
       <c r="E36">
         <f t="shared" si="1"/>
-        <v>0.81999645484701855</v>
+        <v>0.82625929473706694</v>
       </c>
       <c r="F36">
         <f t="shared" si="4"/>
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G36">
         <f t="shared" si="5"/>
-        <v>206</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B37">
         <f t="shared" si="2"/>
-        <v>0.65317284295377664</v>
+        <v>0.67155895484701855</v>
       </c>
       <c r="C37">
         <f t="shared" si="3"/>
-        <v>0.16015625</v>
+        <v>0.1484375</v>
       </c>
       <c r="D37">
         <f t="shared" si="0"/>
-        <v>0.96942895082525748</v>
+        <v>0.97327715043527052</v>
       </c>
       <c r="E37">
         <f t="shared" si="1"/>
-        <v>0.81332909295377664</v>
+        <v>0.81999645484701855</v>
       </c>
       <c r="F37">
         <f t="shared" si="4"/>
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G37">
         <f t="shared" si="5"/>
         <v>206</v>
       </c>
-      <c r="I37">
-        <f>212*254/256</f>
-        <v>210.34375</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B38">
         <f t="shared" si="2"/>
-        <v>0.63439328416364549</v>
+        <v>0.65317284295377664</v>
       </c>
       <c r="C38">
         <f t="shared" si="3"/>
-        <v>0.17187499999999994</v>
+        <v>0.16015625</v>
       </c>
       <c r="D38">
         <f t="shared" si="0"/>
-        <v>0.9653536655673659</v>
+        <v>0.96942895082525748</v>
       </c>
       <c r="E38">
         <f t="shared" si="1"/>
-        <v>0.80626828416364549</v>
+        <v>0.81332909295377664</v>
       </c>
       <c r="F38">
         <f t="shared" si="4"/>
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G38">
         <f t="shared" si="5"/>
-        <v>205</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B39">
         <f t="shared" si="2"/>
-        <v>0.61523159058062693</v>
+        <v>0.63439328416364549</v>
       </c>
       <c r="C39">
         <f t="shared" si="3"/>
-        <v>0.18359374999999989</v>
+        <v>0.17187499999999994</v>
       </c>
       <c r="D39">
         <f t="shared" si="0"/>
-        <v>0.96105782366585568</v>
+        <v>0.9653536655673659</v>
       </c>
       <c r="E39">
         <f t="shared" si="1"/>
-        <v>0.79882534058062682</v>
+        <v>0.80626828416364549</v>
       </c>
       <c r="F39">
         <f t="shared" si="4"/>
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G39">
         <f t="shared" si="5"/>
-        <v>204</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B40">
         <f t="shared" si="2"/>
-        <v>0.59569930449243347</v>
+        <v>0.61523159058062693</v>
       </c>
       <c r="C40">
         <f t="shared" si="3"/>
-        <v>0.1953125</v>
+        <v>0.18359374999999989</v>
       </c>
       <c r="D40">
         <f t="shared" si="0"/>
-        <v>0.95654808698006344</v>
+        <v>0.96105782366585568</v>
       </c>
       <c r="E40">
         <f t="shared" si="1"/>
-        <v>0.79101180449243347</v>
+        <v>0.79882534058062682</v>
       </c>
       <c r="F40">
         <f t="shared" si="4"/>
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G40">
         <f t="shared" si="5"/>
-        <v>203</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B41">
         <f t="shared" si="2"/>
-        <v>0.57580819141784545</v>
+        <v>0.59569930449243347</v>
       </c>
       <c r="C41">
         <f t="shared" si="3"/>
-        <v>0.20703125</v>
+        <v>0.1953125</v>
       </c>
       <c r="D41">
         <f t="shared" si="0"/>
-        <v>0.95183124621154425</v>
+        <v>0.95654808698006344</v>
       </c>
       <c r="E41">
         <f t="shared" si="1"/>
-        <v>0.78283944141784545</v>
+        <v>0.79101180449243347</v>
       </c>
       <c r="F41">
         <f t="shared" si="4"/>
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G41">
         <f t="shared" si="5"/>
-        <v>202</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B42">
         <f t="shared" si="2"/>
-        <v>0.55557023301960218</v>
+        <v>0.57580819141784545</v>
       </c>
       <c r="C42">
         <f t="shared" si="3"/>
-        <v>0.21874999999999989</v>
+        <v>0.20703125</v>
       </c>
       <c r="D42">
         <f t="shared" si="0"/>
-        <v>0.94691421681360988</v>
+        <v>0.95183124621154425</v>
       </c>
       <c r="E42">
         <f t="shared" si="1"/>
-        <v>0.77432023301960207</v>
+        <v>0.78283944141784545</v>
       </c>
       <c r="F42">
         <f t="shared" si="4"/>
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G42">
         <f t="shared" si="5"/>
-        <v>201</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B43">
         <f t="shared" si="2"/>
-        <v>0.53499761988709715</v>
+        <v>0.55557023301960218</v>
       </c>
       <c r="C43">
         <f t="shared" si="3"/>
-        <v>0.23046874999999997</v>
+        <v>0.21874999999999989</v>
       </c>
       <c r="D43">
         <f t="shared" si="0"/>
-        <v>0.9418040348257164</v>
+        <v>0.94691421681360988</v>
       </c>
       <c r="E43">
         <f t="shared" si="1"/>
-        <v>0.76546636988709715</v>
+        <v>0.77432023301960207</v>
       </c>
       <c r="F43">
         <f t="shared" si="4"/>
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G43">
         <f t="shared" si="5"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B44">
         <f t="shared" si="2"/>
-        <v>0.51410274419322177</v>
+        <v>0.53499761988709715</v>
       </c>
       <c r="C44">
         <f t="shared" si="3"/>
-        <v>0.24218750000000006</v>
+        <v>0.23046874999999997</v>
       </c>
       <c r="D44">
         <f t="shared" si="0"/>
-        <v>0.93650785263521719</v>
+        <v>0.9418040348257164</v>
       </c>
       <c r="E44">
         <f t="shared" si="1"/>
-        <v>0.75629024419322177</v>
+        <v>0.76546636988709715</v>
       </c>
       <c r="F44">
         <f t="shared" si="4"/>
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G44">
         <f t="shared" si="5"/>
-        <v>199</v>
-      </c>
-      <c r="H44">
-        <f>2</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B45">
         <f t="shared" si="2"/>
-        <v>0.49289819222978415</v>
+        <v>0.51410274419322177</v>
       </c>
       <c r="C45">
         <f t="shared" si="3"/>
-        <v>0.24609375000000019</v>
+        <v>0.24218750000000006</v>
       </c>
       <c r="D45">
         <f t="shared" si="0"/>
-        <v>0.92652379598200652</v>
+        <v>0.93650785263521719</v>
       </c>
       <c r="E45">
         <f t="shared" si="1"/>
-        <v>0.73899194222978437</v>
+        <v>0.75629024419322177</v>
       </c>
       <c r="F45">
         <f t="shared" si="4"/>
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="G45">
         <f t="shared" si="5"/>
-        <v>196</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B46">
         <f t="shared" si="2"/>
-        <v>0.47139673682599786</v>
+        <v>0.49289819222978415</v>
       </c>
       <c r="C46">
         <f t="shared" si="3"/>
-        <v>0.23437500000000008</v>
+        <v>0.24609375000000019</v>
       </c>
       <c r="D46">
         <f t="shared" si="0"/>
-        <v>0.9073500982697259</v>
+        <v>0.92652379598200652</v>
       </c>
       <c r="E46">
         <f t="shared" si="1"/>
-        <v>0.70577173682599792</v>
+        <v>0.73899194222978437</v>
       </c>
       <c r="F46">
         <f t="shared" si="4"/>
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="G46">
         <f t="shared" si="5"/>
-        <v>192</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B47">
         <f t="shared" si="2"/>
-        <v>0.44961132965460687</v>
+        <v>0.47139673682599786</v>
       </c>
       <c r="C47">
         <f t="shared" si="3"/>
-        <v>0.22265625</v>
+        <v>0.23437500000000008</v>
       </c>
       <c r="D47">
         <f t="shared" si="0"/>
-        <v>0.8880125121861745</v>
+        <v>0.9073500982697259</v>
       </c>
       <c r="E47">
         <f t="shared" si="1"/>
-        <v>0.67226757965460693</v>
+        <v>0.70577173682599792</v>
       </c>
       <c r="F47">
         <f t="shared" si="4"/>
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="G47">
         <f t="shared" si="5"/>
-        <v>188</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B48">
         <f t="shared" si="2"/>
-        <v>0.42755509343028203</v>
+        <v>0.44961132965460687</v>
       </c>
       <c r="C48">
         <f t="shared" si="3"/>
-        <v>0.21093750000000019</v>
+        <v>0.22265625</v>
       </c>
       <c r="D48">
         <f t="shared" si="0"/>
-        <v>0.86851861176532297</v>
+        <v>0.8880125121861745</v>
       </c>
       <c r="E48">
         <f t="shared" si="1"/>
-        <v>0.6384925934302822</v>
+        <v>0.67226757965460693</v>
       </c>
       <c r="F48">
         <f t="shared" si="4"/>
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="G48">
         <f t="shared" si="5"/>
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B49">
         <f t="shared" si="2"/>
-        <v>0.40524131400498992</v>
+        <v>0.42755509343028203</v>
       </c>
       <c r="C49">
         <f t="shared" si="3"/>
-        <v>0.19921875000000008</v>
+        <v>0.21093750000000019</v>
       </c>
       <c r="D49">
         <f t="shared" si="0"/>
-        <v>0.84887606519905567</v>
+        <v>0.86851861176532297</v>
       </c>
       <c r="E49">
         <f t="shared" si="1"/>
-        <v>0.60446006400498997</v>
+        <v>0.6384925934302822</v>
       </c>
       <c r="F49">
         <f t="shared" si="4"/>
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="G49">
         <f t="shared" si="5"/>
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B50">
         <f t="shared" si="2"/>
-        <v>0.38268343236508989</v>
+        <v>0.40524131400498992</v>
       </c>
       <c r="C50">
         <f t="shared" si="3"/>
-        <v>0.1875</v>
+        <v>0.19921875000000008</v>
       </c>
       <c r="D50">
         <f t="shared" si="0"/>
-        <v>0.82909263021813506</v>
+        <v>0.84887606519905567</v>
       </c>
       <c r="E50">
         <f t="shared" si="1"/>
-        <v>0.57018343236508984</v>
+        <v>0.60446006400498997</v>
       </c>
       <c r="F50">
         <f t="shared" si="4"/>
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="G50">
         <f t="shared" si="5"/>
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B51">
         <f t="shared" si="2"/>
-        <v>0.35989503653498833</v>
+        <v>0.38268343236508989</v>
       </c>
       <c r="C51">
         <f t="shared" si="3"/>
-        <v>0.17578125000000014</v>
+        <v>0.1875</v>
       </c>
       <c r="D51">
         <f t="shared" si="0"/>
-        <v>0.80917614941923743</v>
+        <v>0.82909263021813506</v>
       </c>
       <c r="E51">
         <f t="shared" si="1"/>
-        <v>0.53567628653498844</v>
+        <v>0.57018343236508984</v>
       </c>
       <c r="F51">
         <f t="shared" si="4"/>
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="G51">
         <f t="shared" si="5"/>
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B52">
         <f t="shared" si="2"/>
-        <v>0.33688985339222033</v>
+        <v>0.35989503653498833</v>
       </c>
       <c r="C52">
         <f t="shared" si="3"/>
-        <v>0.16406250000000006</v>
+        <v>0.17578125000000014</v>
       </c>
       <c r="D52">
         <f t="shared" si="0"/>
-        <v>0.78913454554086448</v>
+        <v>0.80917614941923743</v>
       </c>
       <c r="E52">
         <f t="shared" si="1"/>
-        <v>0.50095235339222044</v>
+        <v>0.53567628653498844</v>
       </c>
       <c r="F52">
         <f t="shared" si="4"/>
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="G52">
         <f t="shared" si="5"/>
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B53">
         <f t="shared" si="2"/>
-        <v>0.31368174039889141</v>
+        <v>0.33688985339222033</v>
       </c>
       <c r="C53">
         <f t="shared" si="3"/>
-        <v>0.15234374999999997</v>
+        <v>0.16406250000000006</v>
       </c>
       <c r="D53">
         <f t="shared" si="0"/>
-        <v>0.76897581669098203</v>
+        <v>0.78913454554086448</v>
       </c>
       <c r="E53">
         <f t="shared" si="1"/>
-        <v>0.46602549039889141</v>
+        <v>0.50095235339222044</v>
       </c>
       <c r="F53">
         <f t="shared" si="4"/>
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="G53">
         <f t="shared" si="5"/>
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B54">
         <f t="shared" si="2"/>
-        <v>0.29028467725446239</v>
+        <v>0.31368174039889141</v>
       </c>
       <c r="C54">
         <f t="shared" si="3"/>
-        <v>0.14062500000000014</v>
+        <v>0.15234374999999997</v>
       </c>
       <c r="D54">
         <f t="shared" si="0"/>
-        <v>0.74870803152926035</v>
+        <v>0.76897581669098203</v>
       </c>
       <c r="E54">
         <f t="shared" si="1"/>
-        <v>0.4309096772544625</v>
+        <v>0.46602549039889141</v>
       </c>
       <c r="F54">
         <f t="shared" si="4"/>
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="G54">
         <f t="shared" si="5"/>
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B55">
         <f t="shared" si="2"/>
-        <v>0.26671275747489848</v>
+        <v>0.29028467725446239</v>
       </c>
       <c r="C55">
         <f t="shared" si="3"/>
-        <v>0.12890625000000006</v>
+        <v>0.14062500000000014</v>
       </c>
       <c r="D55">
         <f t="shared" si="0"/>
-        <v>0.72833932440681304</v>
+        <v>0.74870803152926035</v>
       </c>
       <c r="E55">
         <f t="shared" si="1"/>
-        <v>0.39561900747489853</v>
+        <v>0.4309096772544625</v>
       </c>
       <c r="F55">
         <f t="shared" si="4"/>
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="G55">
         <f t="shared" si="5"/>
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B56">
         <f t="shared" si="2"/>
-        <v>0.24298017990326407</v>
+        <v>0.26671275747489848</v>
       </c>
       <c r="C56">
         <f t="shared" si="3"/>
-        <v>0.11718749999999994</v>
+        <v>0.12890625000000006</v>
       </c>
       <c r="D56">
         <f t="shared" si="0"/>
-        <v>0.70787789046636895</v>
+        <v>0.72833932440681304</v>
       </c>
       <c r="E56">
         <f t="shared" si="1"/>
-        <v>0.36016767990326404</v>
+        <v>0.39561900747489853</v>
       </c>
       <c r="F56">
         <f t="shared" si="4"/>
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="G56">
         <f t="shared" si="5"/>
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B57">
         <f t="shared" si="2"/>
-        <v>0.21910124015687005</v>
+        <v>0.24298017990326407</v>
       </c>
       <c r="C57">
         <f t="shared" si="3"/>
-        <v>0.10546875000000012</v>
+        <v>0.11718749999999994</v>
       </c>
       <c r="D57">
         <f t="shared" si="0"/>
-        <v>0.6873319807058258</v>
+        <v>0.70787789046636895</v>
       </c>
       <c r="E57">
         <f t="shared" si="1"/>
-        <v>0.32456999015687016</v>
+        <v>0.36016767990326404</v>
       </c>
       <c r="F57">
         <f t="shared" si="4"/>
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="G57">
         <f t="shared" si="5"/>
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B58">
         <f t="shared" si="2"/>
-        <v>0.19509032201612861</v>
+        <v>0.21910124015687005</v>
       </c>
       <c r="C58">
         <f t="shared" si="3"/>
-        <v>9.3750000000000014E-2</v>
+        <v>0.10546875000000012</v>
       </c>
       <c r="D58">
         <f t="shared" si="0"/>
-        <v>0.66670989700815575</v>
+        <v>0.6873319807058258</v>
       </c>
       <c r="E58">
         <f t="shared" si="1"/>
-        <v>0.28884032201612864</v>
+        <v>0.32456999015687016</v>
       </c>
       <c r="F58">
         <f t="shared" si="4"/>
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="G58">
         <f t="shared" si="5"/>
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B59">
         <f t="shared" si="2"/>
-        <v>0.17096188876030122</v>
+        <v>0.19509032201612861</v>
       </c>
       <c r="C59">
         <f t="shared" si="3"/>
-        <v>8.2031249999999931E-2</v>
+        <v>9.3750000000000014E-2</v>
       </c>
       <c r="D59">
         <f t="shared" si="0"/>
-        <v>0.64601998714066233</v>
+        <v>0.66670989700815575</v>
       </c>
       <c r="E59">
         <f t="shared" si="1"/>
-        <v>0.25299313876030116</v>
+        <v>0.28884032201612864</v>
       </c>
       <c r="F59">
         <f t="shared" si="4"/>
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="G59">
         <f t="shared" si="5"/>
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B60">
         <f t="shared" si="2"/>
-        <v>0.1467304744553618</v>
+        <v>0.17096188876030122</v>
       </c>
       <c r="C60">
         <f t="shared" si="3"/>
-        <v>7.0312500000000097E-2</v>
+        <v>8.2031249999999931E-2</v>
       </c>
       <c r="D60">
         <f t="shared" si="0"/>
-        <v>0.62527063972659847</v>
+        <v>0.64601998714066233</v>
       </c>
       <c r="E60">
         <f t="shared" si="1"/>
-        <v>0.21704297445536191</v>
+        <v>0.25299313876030116</v>
       </c>
       <c r="F60">
         <f t="shared" si="4"/>
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="G60">
         <f t="shared" si="5"/>
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B61">
         <f t="shared" si="2"/>
-        <v>0.12241067519921635</v>
+        <v>0.1467304744553618</v>
       </c>
       <c r="C61">
         <f t="shared" si="3"/>
-        <v>5.8593750000000007E-2</v>
+        <v>7.0312500000000097E-2</v>
       </c>
       <c r="D61">
         <f t="shared" si="0"/>
-        <v>0.60447027919217189</v>
+        <v>0.62527063972659847</v>
       </c>
       <c r="E61">
         <f t="shared" si="1"/>
-        <v>0.18100442519921636</v>
+        <v>0.21704297445536191</v>
       </c>
       <c r="F61">
         <f t="shared" si="4"/>
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="G61">
         <f t="shared" si="5"/>
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B62">
         <f t="shared" si="2"/>
-        <v>9.8017140329560826E-2</v>
+        <v>0.12241067519921635</v>
       </c>
       <c r="C62">
         <f t="shared" si="3"/>
-        <v>4.6875000000000187E-2</v>
+        <v>5.8593750000000007E-2</v>
       </c>
       <c r="D62">
         <f t="shared" si="0"/>
-        <v>0.58362736069198662</v>
+        <v>0.60447027919217189</v>
       </c>
       <c r="E62">
         <f t="shared" si="1"/>
-        <v>0.14489214032956102</v>
+        <v>0.18100442519921636</v>
       </c>
       <c r="F62">
         <f t="shared" si="4"/>
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="G62">
         <f t="shared" si="5"/>
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B63">
         <f t="shared" si="2"/>
-        <v>7.3564563599667732E-2</v>
+        <v>9.8017140329560826E-2</v>
       </c>
       <c r="C63">
         <f t="shared" si="3"/>
-        <v>3.5156250000000076E-2</v>
+        <v>4.6875000000000187E-2</v>
       </c>
       <c r="D63">
         <f t="shared" si="0"/>
-        <v>0.56275036501597386</v>
+        <v>0.58362736069198662</v>
       </c>
       <c r="E63">
         <f t="shared" si="1"/>
-        <v>0.10872081359966781</v>
+        <v>0.14489214032956102</v>
       </c>
       <c r="F63">
         <f t="shared" si="4"/>
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="G63">
         <f t="shared" si="5"/>
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B64">
         <f t="shared" si="2"/>
-        <v>4.9067674327417966E-2</v>
+        <v>7.3564563599667732E-2</v>
       </c>
       <c r="C64">
         <f t="shared" si="3"/>
-        <v>2.3437499999999979E-2</v>
+        <v>3.5156250000000076E-2</v>
       </c>
       <c r="D64">
         <f t="shared" si="0"/>
-        <v>0.54184779348088141</v>
+        <v>0.56275036501597386</v>
       </c>
       <c r="E64">
         <f t="shared" si="1"/>
-        <v>7.2505174327417946E-2</v>
+        <v>0.10872081359966781</v>
       </c>
       <c r="F64">
         <f t="shared" si="4"/>
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G64">
         <f t="shared" si="5"/>
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B65">
         <f t="shared" si="2"/>
-        <v>2.4541228522912326E-2</v>
+        <v>4.9067674327417966E-2</v>
       </c>
       <c r="C65">
         <f t="shared" si="3"/>
-        <v>1.171875000000016E-2</v>
+        <v>2.3437499999999979E-2</v>
       </c>
       <c r="D65">
         <f t="shared" si="0"/>
-        <v>0.52092816280939869</v>
+        <v>0.54184779348088141</v>
       </c>
       <c r="E65">
         <f t="shared" si="1"/>
-        <v>3.6259978522912489E-2</v>
+        <v>7.2505174327417946E-2</v>
       </c>
       <c r="F65">
         <f t="shared" si="4"/>
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="G65">
         <f t="shared" si="5"/>
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B66">
         <f t="shared" si="2"/>
-        <v>1.22514845490862E-16</v>
+        <v>2.4541228522912326E-2</v>
       </c>
       <c r="C66">
         <f t="shared" si="3"/>
-        <v>5.8496529786031473E-17</v>
+        <v>1.171875000000016E-2</v>
       </c>
       <c r="D66">
         <f t="shared" si="0"/>
-        <v>0.50000000000000011</v>
+        <v>0.52092816280939869</v>
       </c>
       <c r="E66">
         <f t="shared" si="1"/>
-        <v>1.8101137527689349E-16</v>
+        <v>3.6259978522912489E-2</v>
       </c>
       <c r="F66">
         <f t="shared" si="4"/>
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="G66">
         <f t="shared" si="5"/>
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B67">
         <f t="shared" si="2"/>
-        <v>-2.454122852291208E-2</v>
+        <v>1.22514845490862E-16</v>
       </c>
       <c r="C67">
         <f t="shared" si="3"/>
-        <v>-1.1718750000000045E-2</v>
+        <v>5.8496529786031473E-17</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:D130" si="6">(E67-$E$1)/($F$1-$E$1)</f>
-        <v>0.47907183719060148</v>
+        <f t="shared" si="0"/>
+        <v>0.50000000000000011</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E130" si="7">B67+C67</f>
-        <v>-3.6259978522912129E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.8101137527689349E-16</v>
       </c>
       <c r="F67">
         <f t="shared" si="4"/>
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G67">
         <f t="shared" si="5"/>
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68">
+        <v>129</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="2"/>
+        <v>-2.454122852291208E-2</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="3"/>
+        <v>-1.1718750000000045E-2</v>
+      </c>
+      <c r="D68">
+        <f t="shared" ref="D68:D131" si="6">(E68-$E$2)/($F$2-$E$2)</f>
+        <v>0.47907183719060148</v>
+      </c>
+      <c r="E68">
+        <f t="shared" ref="E68:E131" si="7">B68+C68</f>
+        <v>-3.6259978522912129E-2</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="4"/>
+        <v>122</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="5"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69">
         <v>130</v>
       </c>
-      <c r="B68">
-        <f t="shared" ref="B68:B131" si="8">SIN(PI()*(A68/128))</f>
+      <c r="B69">
+        <f t="shared" ref="B69:B132" si="8">SIN(PI()*(A69/128))</f>
         <v>-4.9067674327417724E-2</v>
       </c>
-      <c r="C68">
-        <f t="shared" ref="C68:C131" si="9">(2*$C$1/PI())*ASIN(SIN(3*A68*PI()/128))</f>
+      <c r="C69">
+        <f t="shared" ref="C69:C132" si="9">(2*$C$2/PI())*ASIN(SIN(3*A69*PI()/128))</f>
         <v>-2.3437499999999865E-2</v>
       </c>
-      <c r="D68">
+      <c r="D69">
         <f t="shared" si="6"/>
         <v>0.45815220651911887</v>
       </c>
-      <c r="E68">
+      <c r="E69">
         <f t="shared" si="7"/>
         <v>-7.2505174327417585E-2</v>
       </c>
-      <c r="F68">
-        <f t="shared" ref="F68:F131" si="10">ROUND(D68*255,0)</f>
+      <c r="F69">
+        <f t="shared" ref="F69:F132" si="10">ROUND(D69*255,0)</f>
         <v>117</v>
       </c>
-      <c r="G68">
-        <f t="shared" ref="G68:G131" si="11">ROUND(D68*212,0)</f>
+      <c r="G69">
+        <f t="shared" ref="G69:G132" si="11">ROUND(D69*$G$2,0)</f>
         <v>97</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70">
         <v>131</v>
       </c>
-      <c r="B69">
+      <c r="B70">
         <f t="shared" si="8"/>
         <v>-7.3564563599667496E-2</v>
       </c>
-      <c r="C69">
+      <c r="C70">
         <f t="shared" si="9"/>
         <v>-3.5156249999999958E-2</v>
       </c>
-      <c r="D69">
+      <c r="D70">
         <f t="shared" si="6"/>
         <v>0.4372496349840263</v>
       </c>
-      <c r="E69">
+      <c r="E70">
         <f t="shared" si="7"/>
         <v>-0.10872081359966745</v>
       </c>
-      <c r="F69">
+      <c r="F70">
         <f t="shared" si="10"/>
         <v>111</v>
       </c>
-      <c r="G69">
+      <c r="G70">
         <f t="shared" si="11"/>
         <v>93</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71">
         <v>132</v>
       </c>
-      <c r="B70">
+      <c r="B71">
         <f t="shared" si="8"/>
         <v>-9.801714032956059E-2</v>
       </c>
-      <c r="C70">
+      <c r="C71">
         <f t="shared" si="9"/>
         <v>-4.6875000000000069E-2</v>
       </c>
-      <c r="D70">
+      <c r="D71">
         <f t="shared" si="6"/>
         <v>0.41637263930801355</v>
       </c>
-      <c r="E70">
+      <c r="E71">
         <f t="shared" si="7"/>
         <v>-0.14489214032956066</v>
       </c>
-      <c r="F70">
+      <c r="F71">
         <f t="shared" si="10"/>
         <v>106</v>
       </c>
-      <c r="G70">
+      <c r="G71">
         <f t="shared" si="11"/>
         <v>88</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72">
         <v>133</v>
       </c>
-      <c r="B71">
+      <c r="B72">
         <f t="shared" si="8"/>
         <v>-0.1224106751992161</v>
       </c>
-      <c r="C71">
+      <c r="C72">
         <f t="shared" si="9"/>
         <v>-5.8593749999999882E-2</v>
       </c>
-      <c r="D71">
+      <c r="D72">
         <f t="shared" si="6"/>
         <v>0.39552972080782833</v>
       </c>
-      <c r="E71">
+      <c r="E72">
         <f t="shared" si="7"/>
         <v>-0.18100442519921597</v>
       </c>
-      <c r="F71">
+      <c r="F72">
         <f t="shared" si="10"/>
         <v>101</v>
       </c>
-      <c r="G71">
+      <c r="G72">
         <f t="shared" si="11"/>
         <v>84</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73">
         <v>134</v>
       </c>
-      <c r="B72">
+      <c r="B73">
         <f t="shared" si="8"/>
         <v>-0.14673047445536158</v>
       </c>
-      <c r="C72">
+      <c r="C73">
         <f t="shared" si="9"/>
         <v>-7.0312499999999986E-2</v>
       </c>
-      <c r="D72">
+      <c r="D73">
         <f t="shared" si="6"/>
         <v>0.37472936027340165</v>
       </c>
-      <c r="E72">
+      <c r="E73">
         <f t="shared" si="7"/>
         <v>-0.21704297445536158</v>
       </c>
-      <c r="F72">
+      <c r="F73">
         <f t="shared" si="10"/>
         <v>96</v>
       </c>
-      <c r="G72">
+      <c r="G73">
         <f t="shared" si="11"/>
         <v>79</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74">
         <v>135</v>
       </c>
-      <c r="B73">
+      <c r="B74">
         <f t="shared" si="8"/>
         <v>-0.17096188876030097</v>
       </c>
-      <c r="C73">
+      <c r="C74">
         <f t="shared" si="9"/>
         <v>-8.2031249999999806E-2</v>
       </c>
-      <c r="D73">
+      <c r="D74">
         <f t="shared" si="6"/>
         <v>0.35398001285933794</v>
       </c>
-      <c r="E73">
+      <c r="E74">
         <f t="shared" si="7"/>
         <v>-0.25299313876030077</v>
       </c>
-      <c r="F73">
+      <c r="F74">
         <f t="shared" si="10"/>
         <v>90</v>
       </c>
-      <c r="G73">
+      <c r="G74">
         <f t="shared" si="11"/>
         <v>75</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75">
         <v>136</v>
       </c>
-      <c r="B74">
+      <c r="B75">
         <f t="shared" si="8"/>
         <v>-0.19509032201612836</v>
       </c>
-      <c r="C74">
+      <c r="C75">
         <f t="shared" si="9"/>
         <v>-9.3749999999999917E-2</v>
       </c>
-      <c r="D74">
+      <c r="D75">
         <f t="shared" si="6"/>
         <v>0.33329010299184447</v>
       </c>
-      <c r="E74">
+      <c r="E75">
         <f t="shared" si="7"/>
         <v>-0.2888403220161283</v>
       </c>
-      <c r="F74">
+      <c r="F75">
         <f t="shared" si="10"/>
         <v>85</v>
       </c>
-      <c r="G74">
+      <c r="G75">
         <f t="shared" si="11"/>
         <v>71</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76">
         <v>137</v>
       </c>
-      <c r="B75">
+      <c r="B76">
         <f t="shared" si="8"/>
         <v>-0.2191012401568698</v>
       </c>
-      <c r="C75">
+      <c r="C76">
         <f t="shared" si="9"/>
         <v>-0.10546875</v>
       </c>
-      <c r="D75">
+      <c r="D76">
         <f t="shared" si="6"/>
         <v>0.31266801929417432</v>
       </c>
-      <c r="E75">
+      <c r="E76">
         <f t="shared" si="7"/>
         <v>-0.32456999015686983</v>
       </c>
-      <c r="F75">
+      <c r="F76">
         <f t="shared" si="10"/>
         <v>80</v>
       </c>
-      <c r="G75">
+      <c r="G76">
         <f t="shared" si="11"/>
         <v>66</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77">
         <v>138</v>
       </c>
-      <c r="B76">
+      <c r="B77">
         <f t="shared" si="8"/>
         <v>-0.24298017990326382</v>
       </c>
-      <c r="C76">
+      <c r="C77">
         <f t="shared" si="9"/>
         <v>-0.11718749999999982</v>
       </c>
-      <c r="D76">
+      <c r="D77">
         <f t="shared" si="6"/>
         <v>0.29212210953363116</v>
       </c>
-      <c r="E76">
+      <c r="E77">
         <f t="shared" si="7"/>
         <v>-0.36016767990326365</v>
       </c>
-      <c r="F76">
+      <c r="F77">
         <f t="shared" si="10"/>
         <v>74</v>
       </c>
-      <c r="G76">
+      <c r="G77">
         <f t="shared" si="11"/>
         <v>62</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78">
         <v>139</v>
       </c>
-      <c r="B77">
+      <c r="B78">
         <f t="shared" si="8"/>
         <v>-0.26671275747489825</v>
       </c>
-      <c r="C77">
+      <c r="C78">
         <f t="shared" si="9"/>
         <v>-0.12890624999999994</v>
       </c>
-      <c r="D77">
+      <c r="D78">
         <f t="shared" si="6"/>
         <v>0.27166067559318718</v>
       </c>
-      <c r="E77">
+      <c r="E78">
         <f t="shared" si="7"/>
         <v>-0.3956190074748982</v>
       </c>
-      <c r="F77">
+      <c r="F78">
         <f t="shared" si="10"/>
         <v>69</v>
       </c>
-      <c r="G77">
+      <c r="G78">
         <f t="shared" si="11"/>
         <v>58</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79">
         <v>140</v>
       </c>
-      <c r="B78">
+      <c r="B79">
         <f t="shared" si="8"/>
         <v>-0.29028467725446211</v>
       </c>
-      <c r="C78">
+      <c r="C79">
         <f t="shared" si="9"/>
         <v>-0.14062500000000006</v>
       </c>
-      <c r="D78">
+      <c r="D79">
         <f t="shared" si="6"/>
         <v>0.2512919684707397</v>
       </c>
-      <c r="E78">
+      <c r="E79">
         <f t="shared" si="7"/>
         <v>-0.43090967725446216</v>
       </c>
-      <c r="F78">
+      <c r="F79">
         <f t="shared" si="10"/>
         <v>64</v>
       </c>
-      <c r="G78">
+      <c r="G79">
         <f t="shared" si="11"/>
         <v>53</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80">
         <v>141</v>
       </c>
-      <c r="B79">
+      <c r="B80">
         <f t="shared" si="8"/>
         <v>-0.31368174039889118</v>
       </c>
-      <c r="C79">
+      <c r="C80">
         <f t="shared" si="9"/>
         <v>-0.15234374999999983</v>
       </c>
-      <c r="D79">
+      <c r="D80">
         <f t="shared" si="6"/>
         <v>0.23102418330901814</v>
       </c>
-      <c r="E79">
+      <c r="E80">
         <f t="shared" si="7"/>
         <v>-0.46602549039889102</v>
       </c>
-      <c r="F79">
+      <c r="F80">
         <f t="shared" si="10"/>
         <v>59</v>
       </c>
-      <c r="G79">
+      <c r="G80">
         <f t="shared" si="11"/>
         <v>49</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81">
         <v>142</v>
       </c>
-      <c r="B80">
+      <c r="B81">
         <f t="shared" si="8"/>
         <v>-0.33688985339222011</v>
       </c>
-      <c r="C80">
+      <c r="C81">
         <f t="shared" si="9"/>
         <v>-0.16406249999999994</v>
       </c>
-      <c r="D80">
+      <c r="D81">
         <f t="shared" si="6"/>
         <v>0.21086545445913579</v>
       </c>
-      <c r="E80">
+      <c r="E81">
         <f t="shared" si="7"/>
         <v>-0.50095235339222</v>
       </c>
-      <c r="F80">
+      <c r="F81">
         <f t="shared" si="10"/>
         <v>54</v>
       </c>
-      <c r="G80">
+      <c r="G81">
         <f t="shared" si="11"/>
         <v>45</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82">
         <v>143</v>
       </c>
-      <c r="B81">
+      <c r="B82">
         <f t="shared" si="8"/>
         <v>-0.35989503653498811</v>
       </c>
-      <c r="C81">
+      <c r="C82">
         <f t="shared" si="9"/>
         <v>-0.17578125000000006</v>
       </c>
-      <c r="D81">
+      <c r="D82">
         <f t="shared" si="6"/>
         <v>0.19082385058076271</v>
       </c>
-      <c r="E81">
+      <c r="E82">
         <f t="shared" si="7"/>
         <v>-0.53567628653498822</v>
       </c>
-      <c r="F81">
+      <c r="F82">
         <f t="shared" si="10"/>
         <v>49</v>
       </c>
-      <c r="G81">
+      <c r="G82">
         <f t="shared" si="11"/>
         <v>40</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83">
         <v>144</v>
       </c>
-      <c r="B82">
+      <c r="B83">
         <f t="shared" si="8"/>
         <v>-0.38268343236508967</v>
       </c>
-      <c r="C82">
+      <c r="C83">
         <f t="shared" si="9"/>
         <v>-0.18749999999999989</v>
       </c>
-      <c r="D82">
+      <c r="D83">
         <f t="shared" si="6"/>
         <v>0.17090736978186516</v>
       </c>
-      <c r="E82">
+      <c r="E83">
         <f t="shared" si="7"/>
         <v>-0.57018343236508962</v>
       </c>
-      <c r="F82">
+      <c r="F83">
         <f t="shared" si="10"/>
         <v>44</v>
       </c>
-      <c r="G82">
+      <c r="G83">
         <f t="shared" si="11"/>
         <v>36</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84">
         <v>145</v>
       </c>
-      <c r="B83">
+      <c r="B84">
         <f t="shared" si="8"/>
         <v>-0.40524131400498969</v>
       </c>
-      <c r="C83">
+      <c r="C84">
         <f t="shared" si="9"/>
         <v>-0.19921874999999989</v>
       </c>
-      <c r="D83">
+      <c r="D84">
         <f t="shared" si="6"/>
         <v>0.15112393480094469</v>
       </c>
-      <c r="E83">
+      <c r="E84">
         <f t="shared" si="7"/>
         <v>-0.60446006400498953</v>
       </c>
-      <c r="F83">
+      <c r="F84">
         <f t="shared" si="10"/>
         <v>39</v>
       </c>
-      <c r="G83">
+      <c r="G84">
         <f t="shared" si="11"/>
         <v>32</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85">
         <v>146</v>
       </c>
-      <c r="B84">
+      <c r="B85">
         <f t="shared" si="8"/>
         <v>-0.42755509343028181</v>
       </c>
-      <c r="C84">
+      <c r="C85">
         <f t="shared" si="9"/>
         <v>-0.21093750000000006</v>
       </c>
-      <c r="D84">
+      <c r="D85">
         <f t="shared" si="6"/>
         <v>0.13148138823467717</v>
       </c>
-      <c r="E84">
+      <c r="E85">
         <f t="shared" si="7"/>
         <v>-0.63849259343028186</v>
       </c>
-      <c r="F84">
+      <c r="F85">
         <f t="shared" si="10"/>
         <v>34</v>
       </c>
-      <c r="G84">
+      <c r="G85">
         <f t="shared" si="11"/>
         <v>28</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A85">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86">
         <v>147</v>
       </c>
-      <c r="B85">
+      <c r="B86">
         <f t="shared" si="8"/>
         <v>-0.44961132965460665</v>
       </c>
-      <c r="C85">
+      <c r="C86">
         <f t="shared" si="9"/>
         <v>-0.22265624999999989</v>
       </c>
-      <c r="D85">
+      <c r="D86">
         <f t="shared" si="6"/>
         <v>0.11198748781382586</v>
       </c>
-      <c r="E85">
+      <c r="E86">
         <f t="shared" si="7"/>
         <v>-0.67226757965460648</v>
       </c>
-      <c r="F85">
+      <c r="F86">
         <f t="shared" si="10"/>
         <v>29</v>
       </c>
-      <c r="G85">
+      <c r="G86">
         <f t="shared" si="11"/>
         <v>24</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A86">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87">
         <v>148</v>
       </c>
-      <c r="B86">
+      <c r="B87">
         <f t="shared" si="8"/>
         <v>-0.47139673682599764</v>
       </c>
-      <c r="C86">
+      <c r="C87">
         <f t="shared" si="9"/>
         <v>-0.23437500000000008</v>
       </c>
-      <c r="D86">
+      <c r="D87">
         <f t="shared" si="6"/>
         <v>9.2649901730274126E-2</v>
       </c>
-      <c r="E86">
+      <c r="E87">
         <f t="shared" si="7"/>
         <v>-0.7057717368259977</v>
       </c>
-      <c r="F86">
+      <c r="F87">
         <f t="shared" si="10"/>
         <v>24</v>
       </c>
-      <c r="G86">
+      <c r="G87">
         <f t="shared" si="11"/>
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A87">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88">
         <v>149</v>
       </c>
-      <c r="B87">
+      <c r="B88">
         <f t="shared" si="8"/>
         <v>-0.49289819222978393</v>
       </c>
-      <c r="C87">
+      <c r="C88">
         <f t="shared" si="9"/>
         <v>-0.2460937499999995</v>
       </c>
-      <c r="D87">
+      <c r="D88">
         <f t="shared" si="6"/>
         <v>7.3476204017993985E-2</v>
       </c>
-      <c r="E87">
+      <c r="E88">
         <f t="shared" si="7"/>
         <v>-0.73899194222978348</v>
       </c>
-      <c r="F87">
+      <c r="F88">
         <f t="shared" si="10"/>
         <v>19</v>
       </c>
-      <c r="G87">
+      <c r="G88">
         <f t="shared" si="11"/>
         <v>16</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A88">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89">
         <v>150</v>
       </c>
-      <c r="B88">
+      <c r="B89">
         <f t="shared" si="8"/>
         <v>-0.51410274419322155</v>
       </c>
-      <c r="C88">
+      <c r="C89">
         <f t="shared" si="9"/>
         <v>-0.24218750000000006</v>
       </c>
-      <c r="D88">
+      <c r="D89">
         <f t="shared" si="6"/>
         <v>6.349214736478298E-2</v>
       </c>
-      <c r="E88">
+      <c r="E89">
         <f t="shared" si="7"/>
         <v>-0.75629024419322155</v>
       </c>
-      <c r="F88">
+      <c r="F89">
         <f t="shared" si="10"/>
         <v>16</v>
       </c>
-      <c r="G88">
+      <c r="G89">
         <f t="shared" si="11"/>
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A89">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90">
         <v>151</v>
       </c>
-      <c r="B89">
+      <c r="B90">
         <f t="shared" si="8"/>
         <v>-0.53499761988709693</v>
       </c>
-      <c r="C89">
+      <c r="C90">
         <f t="shared" si="9"/>
         <v>-0.23046875000000011</v>
       </c>
-      <c r="D89">
+      <c r="D90">
         <f t="shared" si="6"/>
         <v>5.8195965174283777E-2</v>
       </c>
-      <c r="E89">
+      <c r="E90">
         <f t="shared" si="7"/>
         <v>-0.76546636988709704</v>
       </c>
-      <c r="F89">
+      <c r="F90">
         <f t="shared" si="10"/>
         <v>15</v>
       </c>
-      <c r="G89">
+      <c r="G90">
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A90">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91">
         <v>152</v>
       </c>
-      <c r="B90">
+      <c r="B91">
         <f t="shared" si="8"/>
         <v>-0.55557023301960196</v>
       </c>
-      <c r="C90">
+      <c r="C91">
         <f t="shared" si="9"/>
         <v>-0.21875000000000019</v>
       </c>
-      <c r="D90">
+      <c r="D91">
         <f t="shared" si="6"/>
         <v>5.3085783186390074E-2</v>
       </c>
-      <c r="E90">
+      <c r="E91">
         <f t="shared" si="7"/>
         <v>-0.77432023301960218</v>
       </c>
-      <c r="F90">
+      <c r="F91">
         <f t="shared" si="10"/>
         <v>14</v>
       </c>
-      <c r="G90">
+      <c r="G91">
         <f t="shared" si="11"/>
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A91">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92">
         <v>153</v>
       </c>
-      <c r="B91">
+      <c r="B92">
         <f t="shared" si="8"/>
         <v>-0.57580819141784534</v>
       </c>
-      <c r="C91">
+      <c r="C92">
         <f t="shared" si="9"/>
         <v>-0.20703125000000008</v>
       </c>
-      <c r="D91">
+      <c r="D92">
         <f t="shared" si="6"/>
         <v>4.8168753788455643E-2</v>
       </c>
-      <c r="E91">
+      <c r="E92">
         <f t="shared" si="7"/>
         <v>-0.78283944141784545</v>
       </c>
-      <c r="F91">
+      <c r="F92">
         <f t="shared" si="10"/>
         <v>12</v>
       </c>
-      <c r="G91">
+      <c r="G92">
         <f t="shared" si="11"/>
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A92">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93">
         <v>154</v>
       </c>
-      <c r="B92">
+      <c r="B93">
         <f t="shared" si="8"/>
         <v>-0.59569930449243325</v>
       </c>
-      <c r="C92">
+      <c r="C93">
         <f t="shared" si="9"/>
         <v>-0.19531249999999997</v>
       </c>
-      <c r="D92">
+      <c r="D93">
         <f t="shared" si="6"/>
         <v>4.3451913019936804E-2</v>
       </c>
-      <c r="E92">
+      <c r="E93">
         <f t="shared" si="7"/>
         <v>-0.79101180449243325</v>
       </c>
-      <c r="F92">
+      <c r="F93">
         <f t="shared" si="10"/>
         <v>11</v>
       </c>
-      <c r="G92">
+      <c r="G93">
         <f t="shared" si="11"/>
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A93">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94">
         <v>155</v>
       </c>
-      <c r="B93">
+      <c r="B94">
         <f t="shared" si="8"/>
         <v>-0.61523159058062671</v>
       </c>
-      <c r="C93">
+      <c r="C94">
         <f t="shared" si="9"/>
         <v>-0.18359375000000011</v>
       </c>
-      <c r="D93">
+      <c r="D94">
         <f t="shared" si="6"/>
         <v>3.8942176334144284E-2</v>
       </c>
-      <c r="E93">
+      <c r="E94">
         <f t="shared" si="7"/>
         <v>-0.79882534058062682</v>
       </c>
-      <c r="F93">
+      <c r="F94">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
-      <c r="G93">
+      <c r="G94">
         <f t="shared" si="11"/>
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A94">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95">
         <v>156</v>
       </c>
-      <c r="B94">
+      <c r="B95">
         <f t="shared" si="8"/>
         <v>-0.63439328416364527</v>
       </c>
-      <c r="C94">
+      <c r="C95">
         <f t="shared" si="9"/>
         <v>-0.17187500000000006</v>
       </c>
-      <c r="D94">
+      <c r="D95">
         <f t="shared" si="6"/>
         <v>3.4646334432634311E-2</v>
       </c>
-      <c r="E94">
+      <c r="E95">
         <f t="shared" si="7"/>
         <v>-0.80626828416364527</v>
       </c>
-      <c r="F94">
+      <c r="F95">
         <f t="shared" si="10"/>
         <v>9</v>
       </c>
-      <c r="G94">
+      <c r="G95">
         <f t="shared" si="11"/>
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A95">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96">
         <v>157</v>
       </c>
-      <c r="B95">
+      <c r="B96">
         <f t="shared" si="8"/>
         <v>-0.65317284295377653</v>
       </c>
-      <c r="C95">
+      <c r="C96">
         <f t="shared" si="9"/>
         <v>-0.16015624999999994</v>
       </c>
-      <c r="D95">
+      <c r="D96">
         <f t="shared" si="6"/>
         <v>3.0571049174742525E-2</v>
       </c>
-      <c r="E95">
+      <c r="E96">
         <f t="shared" si="7"/>
         <v>-0.81332909295377642</v>
       </c>
-      <c r="F95">
+      <c r="F96">
         <f t="shared" si="10"/>
         <v>8</v>
-      </c>
-      <c r="G95">
-        <f t="shared" si="11"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A96">
-        <v>158</v>
-      </c>
-      <c r="B96">
-        <f t="shared" si="8"/>
-        <v>-0.67155895484701844</v>
-      </c>
-      <c r="C96">
-        <f t="shared" si="9"/>
-        <v>-0.14843750000000011</v>
-      </c>
-      <c r="D96">
-        <f t="shared" si="6"/>
-        <v>2.672284956472952E-2</v>
-      </c>
-      <c r="E96">
-        <f t="shared" si="7"/>
-        <v>-0.81999645484701855</v>
-      </c>
-      <c r="F96">
-        <f t="shared" si="10"/>
-        <v>7</v>
       </c>
       <c r="G96">
         <f t="shared" si="11"/>
@@ -8774,85 +8818,85 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B97">
         <f t="shared" si="8"/>
-        <v>-0.68954054473706683</v>
+        <v>-0.67155895484701844</v>
       </c>
       <c r="C97">
         <f t="shared" si="9"/>
-        <v>-0.13671875000000006</v>
+        <v>-0.14843750000000011</v>
       </c>
       <c r="D97">
         <f t="shared" si="6"/>
-        <v>2.3108127818953952E-2</v>
+        <v>2.672284956472952E-2</v>
       </c>
       <c r="E97">
         <f t="shared" si="7"/>
-        <v>-0.82625929473706683</v>
+        <v>-0.81999645484701855</v>
       </c>
       <c r="F97">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G97">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B98">
         <f t="shared" si="8"/>
-        <v>-0.70710678118654746</v>
+        <v>-0.68954054473706683</v>
       </c>
       <c r="C98">
         <f t="shared" si="9"/>
-        <v>-0.12500000000000019</v>
+        <v>-0.13671875000000006</v>
       </c>
       <c r="D98">
         <f t="shared" si="6"/>
-        <v>1.9733135515437875E-2</v>
+        <v>2.3108127818953952E-2</v>
       </c>
       <c r="E98">
         <f t="shared" si="7"/>
-        <v>-0.83210678118654768</v>
+        <v>-0.82625929473706683</v>
       </c>
       <c r="F98">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G98">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B99">
         <f t="shared" si="8"/>
-        <v>-0.72424708295146678</v>
+        <v>-0.70710678118654746</v>
       </c>
       <c r="C99">
         <f t="shared" si="9"/>
-        <v>-0.11328125000000011</v>
+        <v>-0.12500000000000019</v>
       </c>
       <c r="D99">
         <f t="shared" si="6"/>
-        <v>1.6603979828152645E-2</v>
+        <v>1.9733135515437875E-2</v>
       </c>
       <c r="E99">
         <f t="shared" si="7"/>
-        <v>-0.83752833295146689</v>
+        <v>-0.83210678118654768</v>
       </c>
       <c r="F99">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G99">
         <f t="shared" si="11"/>
@@ -8861,23 +8905,23 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B100">
         <f t="shared" si="8"/>
-        <v>-0.74095112535495888</v>
+        <v>-0.72424708295146678</v>
       </c>
       <c r="C100">
         <f t="shared" si="9"/>
-        <v>-0.1015625</v>
+        <v>-0.11328125000000011</v>
       </c>
       <c r="D100">
         <f t="shared" si="6"/>
-        <v>1.3726619848283619E-2</v>
+        <v>1.6603979828152645E-2</v>
       </c>
       <c r="E100">
         <f t="shared" si="7"/>
-        <v>-0.84251362535495888</v>
+        <v>-0.83752833295146689</v>
       </c>
       <c r="F100">
         <f t="shared" si="10"/>
@@ -8885,61 +8929,61 @@
       </c>
       <c r="G100">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B101">
         <f t="shared" si="8"/>
-        <v>-0.75720884650648423</v>
+        <v>-0.74095112535495888</v>
       </c>
       <c r="C101">
         <f t="shared" si="9"/>
-        <v>-8.9843750000000194E-2</v>
+        <v>-0.1015625</v>
       </c>
       <c r="D101">
         <f t="shared" si="6"/>
-        <v>1.1106862994697349E-2</v>
+        <v>1.3726619848283619E-2</v>
       </c>
       <c r="E101">
         <f t="shared" si="7"/>
-        <v>-0.84705259650648446</v>
+        <v>-0.84251362535495888</v>
       </c>
       <c r="F101">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G101">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B102">
         <f t="shared" si="8"/>
-        <v>-0.77301045336273666</v>
+        <v>-0.75720884650648423</v>
       </c>
       <c r="C102">
         <f t="shared" si="9"/>
-        <v>-7.8125000000000083E-2</v>
+        <v>-8.9843750000000194E-2</v>
       </c>
       <c r="D102">
         <f t="shared" si="6"/>
-        <v>8.7503615157699752E-3</v>
+        <v>1.1106862994697349E-2</v>
       </c>
       <c r="E102">
         <f t="shared" si="7"/>
-        <v>-0.85113545336273677</v>
+        <v>-0.84705259650648446</v>
       </c>
       <c r="F102">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G102">
         <f t="shared" si="11"/>
@@ -8948,23 +8992,23 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B103">
         <f t="shared" si="8"/>
-        <v>-0.78834642762660589</v>
+        <v>-0.77301045336273666</v>
       </c>
       <c r="C103">
         <f t="shared" si="9"/>
-        <v>-6.6406249999999986E-2</v>
+        <v>-7.8125000000000083E-2</v>
       </c>
       <c r="D103">
         <f t="shared" si="6"/>
-        <v>6.6626090846833245E-3</v>
+        <v>8.7503615157699752E-3</v>
       </c>
       <c r="E103">
         <f t="shared" si="7"/>
-        <v>-0.85475267762660589</v>
+        <v>-0.85113545336273677</v>
       </c>
       <c r="F103">
         <f t="shared" si="10"/>
@@ -8972,32 +9016,32 @@
       </c>
       <c r="G103">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B104">
         <f t="shared" si="8"/>
-        <v>-0.80320753148064505</v>
+        <v>-0.78834642762660589</v>
       </c>
       <c r="C104">
         <f t="shared" si="9"/>
-        <v>-5.468750000000018E-2</v>
+        <v>-6.6406249999999986E-2</v>
       </c>
       <c r="D104">
         <f t="shared" si="6"/>
-        <v>4.8489374902414848E-3</v>
+        <v>6.6626090846833245E-3</v>
       </c>
       <c r="E104">
         <f t="shared" si="7"/>
-        <v>-0.85789503148064528</v>
+        <v>-0.85475267762660589</v>
       </c>
       <c r="F104">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G104">
         <f t="shared" si="11"/>
@@ -9006,23 +9050,23 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B105">
         <f t="shared" si="8"/>
-        <v>-0.81758481315158382</v>
+        <v>-0.80320753148064505</v>
       </c>
       <c r="C105">
         <f t="shared" si="9"/>
-        <v>-4.2968750000000076E-2</v>
+        <v>-5.468750000000018E-2</v>
       </c>
       <c r="D105">
         <f t="shared" si="6"/>
-        <v>3.3145134252026863E-3</v>
+        <v>4.8489374902414848E-3</v>
       </c>
       <c r="E105">
         <f t="shared" si="7"/>
-        <v>-0.86055356315158393</v>
+        <v>-0.85789503148064528</v>
       </c>
       <c r="F105">
         <f t="shared" si="10"/>
@@ -9035,23 +9079,23 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B106">
         <f t="shared" si="8"/>
-        <v>-0.83146961230254524</v>
+        <v>-0.81758481315158382</v>
       </c>
       <c r="C106">
         <f t="shared" si="9"/>
-        <v>-3.1249999999999976E-2</v>
+        <v>-4.2968750000000076E-2</v>
       </c>
       <c r="D106">
         <f t="shared" si="6"/>
-        <v>2.064335374053726E-3</v>
+        <v>3.3145134252026863E-3</v>
       </c>
       <c r="E106">
         <f t="shared" si="7"/>
-        <v>-0.86271961230254524</v>
+        <v>-0.86055356315158393</v>
       </c>
       <c r="F106">
         <f t="shared" si="10"/>
@@ -9059,32 +9103,32 @@
       </c>
       <c r="G106">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B107">
         <f t="shared" si="8"/>
-        <v>-0.84485356524970701</v>
+        <v>-0.83146961230254524</v>
       </c>
       <c r="C107">
         <f t="shared" si="9"/>
-        <v>-1.9531250000000153E-2</v>
+        <v>-3.1249999999999976E-2</v>
       </c>
       <c r="D107">
         <f t="shared" si="6"/>
-        <v>1.1032306021114854E-3</v>
+        <v>2.064335374053726E-3</v>
       </c>
       <c r="E107">
         <f t="shared" si="7"/>
-        <v>-0.86438481524970712</v>
+        <v>-0.86271961230254524</v>
       </c>
       <c r="F107">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G107">
         <f t="shared" si="11"/>
@@ -9093,23 +9137,23 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B108">
         <f t="shared" si="8"/>
-        <v>-0.85772861000027201</v>
+        <v>-0.84485356524970701</v>
       </c>
       <c r="C108">
         <f t="shared" si="9"/>
-        <v>-7.8125000000000503E-3</v>
+        <v>-1.9531250000000153E-2</v>
       </c>
       <c r="D108">
         <f t="shared" si="6"/>
-        <v>4.3585224775907598E-4</v>
+        <v>1.1032306021114854E-3</v>
       </c>
       <c r="E108">
         <f t="shared" si="7"/>
-        <v>-0.86554111000027201</v>
+        <v>-0.86438481524970712</v>
       </c>
       <c r="F108">
         <f t="shared" si="10"/>
@@ -9122,23 +9166,23 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B109">
         <f t="shared" si="8"/>
-        <v>-0.87008699110871135</v>
+        <v>-0.85772861000027201</v>
       </c>
       <c r="C109">
         <f t="shared" si="9"/>
-        <v>3.9062500000000494E-3</v>
+        <v>-7.8125000000000503E-3</v>
       </c>
       <c r="D109">
         <f t="shared" si="6"/>
-        <v>6.6676519568394354E-5</v>
+        <v>4.3585224775907598E-4</v>
       </c>
       <c r="E109">
         <f t="shared" si="7"/>
-        <v>-0.86618074110871135</v>
+        <v>-0.86554111000027201</v>
       </c>
       <c r="F109">
         <f t="shared" si="10"/>
@@ -9151,23 +9195,23 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B110">
         <f t="shared" si="8"/>
-        <v>-0.88192126434835494</v>
+        <v>-0.87008699110871135</v>
       </c>
       <c r="C110">
         <f t="shared" si="9"/>
-        <v>1.5624999999999868E-2</v>
+        <v>3.9062500000000494E-3</v>
       </c>
       <c r="D110">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>6.6676519568394354E-5</v>
       </c>
       <c r="E110">
         <f t="shared" si="7"/>
-        <v>-0.86629626434835505</v>
+        <v>-0.86618074110871135</v>
       </c>
       <c r="F110">
         <f t="shared" si="10"/>
@@ -9180,23 +9224,23 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B111">
         <f t="shared" si="8"/>
-        <v>-0.89322430119551521</v>
+        <v>-0.88192126434835494</v>
       </c>
       <c r="C111">
         <f t="shared" si="9"/>
-        <v>2.7343749999999976E-2</v>
+        <v>1.5624999999999868E-2</v>
       </c>
       <c r="D111">
         <f t="shared" si="6"/>
-        <v>2.3993705730252898E-4</v>
+        <v>0</v>
       </c>
       <c r="E111">
         <f t="shared" si="7"/>
-        <v>-0.86588055119551521</v>
+        <v>-0.86629626434835505</v>
       </c>
       <c r="F111">
         <f t="shared" si="10"/>
@@ -9209,23 +9253,23 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B112">
         <f t="shared" si="8"/>
-        <v>-0.90398929312344312</v>
+        <v>-0.89322430119551521</v>
       </c>
       <c r="C112">
         <f t="shared" si="9"/>
-        <v>3.9062499999999785E-2</v>
+        <v>2.7343749999999976E-2</v>
       </c>
       <c r="D112">
         <f t="shared" si="6"/>
-        <v>7.9041736717048777E-4</v>
+        <v>2.3993705730252898E-4</v>
       </c>
       <c r="E112">
         <f t="shared" si="7"/>
-        <v>-0.86492679312344334</v>
+        <v>-0.86588055119551521</v>
       </c>
       <c r="F112">
         <f t="shared" si="10"/>
@@ -9238,23 +9282,23 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B113">
         <f t="shared" si="8"/>
-        <v>-0.91420975570353047</v>
+        <v>-0.90398929312344312</v>
       </c>
       <c r="C113">
         <f t="shared" si="9"/>
-        <v>5.0781249999999889E-2</v>
+        <v>3.9062499999999785E-2</v>
       </c>
       <c r="D113">
         <f t="shared" si="6"/>
-        <v>1.6551835456555118E-3</v>
+        <v>7.9041736717048777E-4</v>
       </c>
       <c r="E113">
         <f t="shared" si="7"/>
-        <v>-0.86342850570353058</v>
+        <v>-0.86492679312344334</v>
       </c>
       <c r="F113">
         <f t="shared" si="10"/>
@@ -9267,52 +9311,52 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B114">
         <f t="shared" si="8"/>
-        <v>-0.92387953251128652</v>
+        <v>-0.91420975570353047</v>
       </c>
       <c r="C114">
         <f t="shared" si="9"/>
-        <v>6.25E-2</v>
+        <v>5.0781249999999889E-2</v>
       </c>
       <c r="D114">
         <f t="shared" si="6"/>
-        <v>2.837788894753572E-3</v>
+        <v>1.6551835456555118E-3</v>
       </c>
       <c r="E114">
         <f t="shared" si="7"/>
-        <v>-0.86137953251128652</v>
+        <v>-0.86342850570353058</v>
       </c>
       <c r="F114">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G114">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B115">
         <f t="shared" si="8"/>
-        <v>-0.93299279883473896</v>
+        <v>-0.92387953251128652</v>
       </c>
       <c r="C115">
         <f t="shared" si="9"/>
-        <v>7.421874999999982E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="D115">
         <f t="shared" si="6"/>
-        <v>4.3415952620286481E-3</v>
+        <v>2.837788894753572E-3</v>
       </c>
       <c r="E115">
         <f t="shared" si="7"/>
-        <v>-0.85877404883473918</v>
+        <v>-0.86137953251128652</v>
       </c>
       <c r="F115">
         <f t="shared" si="10"/>
@@ -9325,27 +9369,27 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B116">
         <f t="shared" si="8"/>
-        <v>-0.94154406518302081</v>
+        <v>-0.93299279883473896</v>
       </c>
       <c r="C116">
         <f t="shared" si="9"/>
-        <v>8.5937499999999917E-2</v>
+        <v>7.421874999999982E-2</v>
       </c>
       <c r="D116">
         <f t="shared" si="6"/>
-        <v>6.1697710155630952E-3</v>
+        <v>4.3415952620286481E-3</v>
       </c>
       <c r="E116">
         <f t="shared" si="7"/>
-        <v>-0.85560656518302092</v>
+        <v>-0.85877404883473918</v>
       </c>
       <c r="F116">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G116">
         <f t="shared" si="11"/>
@@ -9354,23 +9398,23 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B117">
         <f t="shared" si="8"/>
-        <v>-0.94952818059303667</v>
+        <v>-0.94154406518302081</v>
       </c>
       <c r="C117">
         <f t="shared" si="9"/>
-        <v>9.765625E-2</v>
+        <v>8.5937499999999917E-2</v>
       </c>
       <c r="D117">
         <f t="shared" si="6"/>
-        <v>8.3252891354487369E-3</v>
+        <v>6.1697710155630952E-3</v>
       </c>
       <c r="E117">
         <f t="shared" si="7"/>
-        <v>-0.85187193059303667</v>
+        <v>-0.85560656518302092</v>
       </c>
       <c r="F117">
         <f t="shared" si="10"/>
@@ -9378,32 +9422,32 @@
       </c>
       <c r="G117">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B118">
         <f t="shared" si="8"/>
-        <v>-0.95694033573220882</v>
+        <v>-0.94952818059303667</v>
       </c>
       <c r="C118">
         <f t="shared" si="9"/>
-        <v>0.10937499999999985</v>
+        <v>9.765625E-2</v>
       </c>
       <c r="D118">
         <f t="shared" si="6"/>
-        <v>1.0810925422976332E-2</v>
+        <v>8.3252891354487369E-3</v>
       </c>
       <c r="E118">
         <f t="shared" si="7"/>
-        <v>-0.84756533573220894</v>
+        <v>-0.85187193059303667</v>
       </c>
       <c r="F118">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G118">
         <f t="shared" si="11"/>
@@ -9412,23 +9456,23 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B119">
         <f t="shared" si="8"/>
-        <v>-0.96377606579543984</v>
+        <v>-0.95694033573220882</v>
       </c>
       <c r="C119">
         <f t="shared" si="9"/>
-        <v>0.12109374999999994</v>
+        <v>0.10937499999999985</v>
       </c>
       <c r="D119">
         <f t="shared" si="6"/>
-        <v>1.3629256828596607E-2</v>
+        <v>1.0810925422976332E-2</v>
       </c>
       <c r="E119">
         <f t="shared" si="7"/>
-        <v>-0.84268231579543995</v>
+        <v>-0.84756533573220894</v>
       </c>
       <c r="F119">
         <f t="shared" si="10"/>
@@ -9436,61 +9480,61 @@
       </c>
       <c r="G119">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B120">
         <f t="shared" si="8"/>
-        <v>-0.97003125319454397</v>
+        <v>-0.96377606579543984</v>
       </c>
       <c r="C120">
         <f t="shared" si="9"/>
-        <v>0.13281250000000006</v>
+        <v>0.12109374999999994</v>
       </c>
       <c r="D120">
         <f t="shared" si="6"/>
-        <v>1.6782659899661382E-2</v>
+        <v>1.3629256828596607E-2</v>
       </c>
       <c r="E120">
         <f t="shared" si="7"/>
-        <v>-0.83721875319454386</v>
+        <v>-0.84268231579543995</v>
       </c>
       <c r="F120">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G120">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B121">
         <f t="shared" si="8"/>
-        <v>-0.97570213003852846</v>
+        <v>-0.97003125319454397</v>
       </c>
       <c r="C121">
         <f t="shared" si="9"/>
-        <v>0.14453124999999986</v>
+        <v>0.13281250000000006</v>
       </c>
       <c r="D121">
         <f t="shared" si="6"/>
-        <v>2.02733093488799E-2</v>
+        <v>1.6782659899661382E-2</v>
       </c>
       <c r="E121">
         <f t="shared" si="7"/>
-        <v>-0.83117088003852857</v>
+        <v>-0.83721875319454386</v>
       </c>
       <c r="F121">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G121">
         <f t="shared" si="11"/>
@@ -9499,549 +9543,549 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B122">
         <f t="shared" si="8"/>
-        <v>-0.98078528040323032</v>
+        <v>-0.97570213003852846</v>
       </c>
       <c r="C122">
         <f t="shared" si="9"/>
-        <v>0.15624999999999994</v>
+        <v>0.14453124999999986</v>
       </c>
       <c r="D122">
         <f t="shared" si="6"/>
-        <v>2.4103176744354339E-2</v>
+        <v>2.02733093488799E-2</v>
       </c>
       <c r="E122">
         <f t="shared" si="7"/>
-        <v>-0.82453528040323043</v>
+        <v>-0.83117088003852857</v>
       </c>
       <c r="F122">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G122">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B123">
         <f t="shared" si="8"/>
-        <v>-0.98527764238894111</v>
+        <v>-0.98078528040323032</v>
       </c>
       <c r="C123">
         <f t="shared" si="9"/>
-        <v>0.16796875000000003</v>
+        <v>0.15624999999999994</v>
       </c>
       <c r="D123">
         <f t="shared" si="6"/>
-        <v>2.8274029321979817E-2</v>
+        <v>2.4103176744354339E-2</v>
       </c>
       <c r="E123">
         <f t="shared" si="7"/>
-        <v>-0.81730889238894111</v>
+        <v>-0.82453528040323043</v>
       </c>
       <c r="F123">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G123">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B124">
         <f t="shared" si="8"/>
-        <v>-0.9891765099647809</v>
+        <v>-0.98527764238894111</v>
       </c>
       <c r="C124">
         <f t="shared" si="9"/>
-        <v>0.17968749999999989</v>
+        <v>0.16796875000000003</v>
       </c>
       <c r="D124">
         <f t="shared" si="6"/>
-        <v>3.2787428920927855E-2</v>
+        <v>2.8274029321979817E-2</v>
       </c>
       <c r="E124">
         <f t="shared" si="7"/>
-        <v>-0.80948900996478101</v>
+        <v>-0.81730889238894111</v>
       </c>
       <c r="F124">
         <f t="shared" si="10"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G124">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B125">
         <f t="shared" si="8"/>
-        <v>-0.99247953459871008</v>
+        <v>-0.9891765099647809</v>
       </c>
       <c r="C125">
         <f t="shared" si="9"/>
-        <v>0.19140625</v>
+        <v>0.17968749999999989</v>
       </c>
       <c r="D125">
         <f t="shared" si="6"/>
-        <v>3.7644731042853437E-2</v>
+        <v>3.2787428920927855E-2</v>
       </c>
       <c r="E125">
         <f t="shared" si="7"/>
-        <v>-0.80107328459871008</v>
+        <v>-0.80948900996478101</v>
       </c>
       <c r="F125">
         <f t="shared" si="10"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G125">
         <f t="shared" si="11"/>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B126">
         <f t="shared" si="8"/>
-        <v>-0.99518472667219693</v>
+        <v>-0.99247953459871008</v>
       </c>
       <c r="C126">
         <f t="shared" si="9"/>
-        <v>0.20312499999999981</v>
+        <v>0.19140625</v>
       </c>
       <c r="D126">
         <f t="shared" si="6"/>
-        <v>4.2847084035390635E-2</v>
+        <v>3.7644731042853437E-2</v>
       </c>
       <c r="E126">
         <f t="shared" si="7"/>
-        <v>-0.79205972667219715</v>
+        <v>-0.80107328459871008</v>
       </c>
       <c r="F126">
         <f t="shared" si="10"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G126">
         <f t="shared" si="11"/>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B127">
         <f t="shared" si="8"/>
-        <v>-0.99729045667869021</v>
+        <v>-0.99518472667219693</v>
       </c>
       <c r="C127">
         <f t="shared" si="9"/>
-        <v>0.21484374999999989</v>
+        <v>0.20312499999999981</v>
       </c>
       <c r="D127">
         <f t="shared" si="6"/>
-        <v>4.839542840043181E-2</v>
+        <v>4.2847084035390635E-2</v>
       </c>
       <c r="E127">
         <f t="shared" si="7"/>
-        <v>-0.78244670667869032</v>
+        <v>-0.79205972667219715</v>
       </c>
       <c r="F127">
         <f t="shared" si="10"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G127">
         <f t="shared" si="11"/>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B128">
         <f t="shared" si="8"/>
-        <v>-0.99879545620517241</v>
+        <v>-0.99729045667869021</v>
       </c>
       <c r="C128">
         <f t="shared" si="9"/>
-        <v>0.22656250000000006</v>
+        <v>0.21484374999999989</v>
       </c>
       <c r="D128">
         <f t="shared" si="6"/>
-        <v>5.4290496227603437E-2</v>
+        <v>4.839542840043181E-2</v>
       </c>
       <c r="E128">
         <f t="shared" si="7"/>
-        <v>-0.77223295620517241</v>
+        <v>-0.78244670667869032</v>
       </c>
       <c r="F128">
         <f t="shared" si="10"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G128">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B129">
         <f t="shared" si="8"/>
-        <v>-0.99969881869620425</v>
+        <v>-0.99879545620517241</v>
       </c>
       <c r="C129">
         <f t="shared" si="9"/>
-        <v>0.23828124999999975</v>
+        <v>0.22656250000000006</v>
       </c>
       <c r="D129">
         <f t="shared" si="6"/>
-        <v>6.0532810753283338E-2</v>
+        <v>5.4290496227603437E-2</v>
       </c>
       <c r="E129">
         <f t="shared" si="7"/>
-        <v>-0.76141756869620447</v>
+        <v>-0.77223295620517241</v>
       </c>
       <c r="F129">
         <f t="shared" si="10"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G129">
         <f t="shared" si="11"/>
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B130">
         <f t="shared" si="8"/>
-        <v>-1</v>
+        <v>-0.99969881869620425</v>
       </c>
       <c r="C130">
         <f t="shared" si="9"/>
-        <v>0.25</v>
+        <v>0.23828124999999975</v>
       </c>
       <c r="D130">
         <f t="shared" si="6"/>
-        <v>6.7122686045423138E-2</v>
+        <v>6.0532810753283338E-2</v>
       </c>
       <c r="E130">
         <f t="shared" si="7"/>
-        <v>-0.75</v>
+        <v>-0.76141756869620447</v>
       </c>
       <c r="F130">
         <f t="shared" si="10"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G130">
         <f t="shared" si="11"/>
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B131">
         <f t="shared" si="8"/>
-        <v>-0.99969881869620425</v>
+        <v>-1</v>
       </c>
       <c r="C131">
         <f t="shared" si="9"/>
-        <v>0.23828125</v>
+        <v>0.25</v>
       </c>
       <c r="D131">
-        <f t="shared" ref="D131:D194" si="12">(E131-$E$1)/($F$1-$E$1)</f>
-        <v>6.0532810753283463E-2</v>
+        <f t="shared" si="6"/>
+        <v>6.7122686045423138E-2</v>
       </c>
       <c r="E131">
-        <f t="shared" ref="E131:E194" si="13">B131+C131</f>
-        <v>-0.76141756869620425</v>
+        <f t="shared" si="7"/>
+        <v>-0.75</v>
       </c>
       <c r="F131">
         <f t="shared" si="10"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G131">
         <f t="shared" si="11"/>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132">
+        <v>193</v>
+      </c>
+      <c r="B132">
+        <f t="shared" si="8"/>
+        <v>-0.99969881869620425</v>
+      </c>
+      <c r="C132">
+        <f t="shared" si="9"/>
+        <v>0.23828125</v>
+      </c>
+      <c r="D132">
+        <f t="shared" ref="D132:D195" si="12">(E132-$E$2)/($F$2-$E$2)</f>
+        <v>6.0532810753283463E-2</v>
+      </c>
+      <c r="E132">
+        <f t="shared" ref="E132:E195" si="13">B132+C132</f>
+        <v>-0.76141756869620425</v>
+      </c>
+      <c r="F132">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="G132">
+        <f t="shared" si="11"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A133">
         <v>194</v>
       </c>
-      <c r="B132">
-        <f t="shared" ref="B132:B195" si="14">SIN(PI()*(A132/128))</f>
+      <c r="B133">
+        <f t="shared" ref="B133:B196" si="14">SIN(PI()*(A133/128))</f>
         <v>-0.99879545620517241</v>
       </c>
-      <c r="C132">
-        <f t="shared" ref="C132:C195" si="15">(2*$C$1/PI())*ASIN(SIN(3*A132*PI()/128))</f>
+      <c r="C133">
+        <f t="shared" ref="C133:C196" si="15">(2*$C$2/PI())*ASIN(SIN(3*A133*PI()/128))</f>
         <v>0.22656250000000019</v>
       </c>
-      <c r="D132">
+      <c r="D133">
         <f t="shared" si="12"/>
         <v>5.4290496227603569E-2</v>
       </c>
-      <c r="E132">
+      <c r="E133">
         <f t="shared" si="13"/>
         <v>-0.77223295620517218</v>
       </c>
-      <c r="F132">
-        <f t="shared" ref="F132:F195" si="16">ROUND(D132*255,0)</f>
+      <c r="F133">
+        <f t="shared" ref="F133:F196" si="16">ROUND(D133*255,0)</f>
         <v>14</v>
       </c>
-      <c r="G132">
-        <f t="shared" ref="G132:G195" si="17">ROUND(D132*212,0)</f>
+      <c r="G133">
+        <f t="shared" ref="G133:G196" si="17">ROUND(D133*$G$2,0)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A133">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A134">
         <v>195</v>
       </c>
-      <c r="B133">
+      <c r="B134">
         <f t="shared" si="14"/>
         <v>-0.99729045667869021</v>
       </c>
-      <c r="C133">
+      <c r="C134">
         <f t="shared" si="15"/>
         <v>0.21484375000000011</v>
       </c>
-      <c r="D133">
+      <c r="D134">
         <f t="shared" si="12"/>
         <v>4.8395428400431942E-2</v>
       </c>
-      <c r="E133">
+      <c r="E134">
         <f t="shared" si="13"/>
         <v>-0.7824467066786901</v>
       </c>
-      <c r="F133">
+      <c r="F134">
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="G133">
+      <c r="G134">
         <f t="shared" si="17"/>
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A134">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A135">
         <v>196</v>
       </c>
-      <c r="B134">
+      <c r="B135">
         <f t="shared" si="14"/>
         <v>-0.99518472667219693</v>
       </c>
-      <c r="C134">
+      <c r="C135">
         <f t="shared" si="15"/>
         <v>0.203125</v>
       </c>
-      <c r="D134">
+      <c r="D135">
         <f t="shared" si="12"/>
         <v>4.284708403539076E-2</v>
       </c>
-      <c r="E134">
+      <c r="E135">
         <f t="shared" si="13"/>
         <v>-0.79205972667219693</v>
       </c>
-      <c r="F134">
+      <c r="F135">
         <f t="shared" si="16"/>
         <v>11</v>
       </c>
-      <c r="G134">
+      <c r="G135">
         <f t="shared" si="17"/>
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A135">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A136">
         <v>197</v>
       </c>
-      <c r="B135">
+      <c r="B136">
         <f t="shared" si="14"/>
         <v>-0.99247953459871008</v>
       </c>
-      <c r="C135">
+      <c r="C136">
         <f t="shared" si="15"/>
         <v>0.19140625000000014</v>
       </c>
-      <c r="D135">
+      <c r="D136">
         <f t="shared" si="12"/>
         <v>3.7644731042853499E-2</v>
       </c>
-      <c r="E135">
+      <c r="E136">
         <f t="shared" si="13"/>
         <v>-0.80107328459870997</v>
       </c>
-      <c r="F135">
+      <c r="F136">
         <f t="shared" si="16"/>
         <v>10</v>
       </c>
-      <c r="G135">
+      <c r="G136">
         <f t="shared" si="17"/>
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A136">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A137">
         <v>198</v>
       </c>
-      <c r="B136">
+      <c r="B137">
         <f t="shared" si="14"/>
         <v>-0.9891765099647809</v>
       </c>
-      <c r="C136">
+      <c r="C137">
         <f t="shared" si="15"/>
         <v>0.17968750000000003</v>
       </c>
-      <c r="D136">
+      <c r="D137">
         <f t="shared" si="12"/>
         <v>3.2787428920927918E-2</v>
       </c>
-      <c r="E136">
+      <c r="E137">
         <f t="shared" si="13"/>
         <v>-0.8094890099647809</v>
       </c>
-      <c r="F136">
+      <c r="F137">
         <f t="shared" si="16"/>
         <v>8</v>
       </c>
-      <c r="G136">
+      <c r="G137">
         <f t="shared" si="17"/>
         <v>7</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A137">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A138">
         <v>199</v>
       </c>
-      <c r="B137">
+      <c r="B138">
         <f t="shared" si="14"/>
         <v>-0.98527764238894122</v>
       </c>
-      <c r="C137">
+      <c r="C138">
         <f t="shared" si="15"/>
         <v>0.16796875000000025</v>
       </c>
-      <c r="D137">
+      <c r="D138">
         <f t="shared" si="12"/>
         <v>2.8274029321979883E-2</v>
       </c>
-      <c r="E137">
+      <c r="E138">
         <f t="shared" si="13"/>
         <v>-0.817308892388941</v>
       </c>
-      <c r="F137">
+      <c r="F138">
         <f t="shared" si="16"/>
         <v>7</v>
       </c>
-      <c r="G137">
+      <c r="G138">
         <f t="shared" si="17"/>
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A138">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A139">
         <v>200</v>
       </c>
-      <c r="B138">
+      <c r="B139">
         <f t="shared" si="14"/>
         <v>-0.98078528040323043</v>
       </c>
-      <c r="C138">
+      <c r="C139">
         <f t="shared" si="15"/>
         <v>0.15625000000000014</v>
       </c>
-      <c r="D138">
+      <c r="D139">
         <f t="shared" si="12"/>
         <v>2.4103176744354401E-2</v>
       </c>
-      <c r="E138">
+      <c r="E139">
         <f t="shared" si="13"/>
         <v>-0.82453528040323032</v>
       </c>
-      <c r="F138">
+      <c r="F139">
         <f t="shared" si="16"/>
         <v>6</v>
       </c>
-      <c r="G138">
+      <c r="G139">
         <f t="shared" si="17"/>
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A139">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A140">
         <v>201</v>
       </c>
-      <c r="B139">
+      <c r="B140">
         <f t="shared" si="14"/>
         <v>-0.97570213003852857</v>
       </c>
-      <c r="C139">
+      <c r="C140">
         <f t="shared" si="15"/>
         <v>0.14453125000000003</v>
       </c>
-      <c r="D139">
+      <c r="D140">
         <f t="shared" si="12"/>
         <v>2.02733093488799E-2</v>
       </c>
-      <c r="E139">
+      <c r="E140">
         <f t="shared" si="13"/>
         <v>-0.83117088003852857</v>
       </c>
-      <c r="F139">
+      <c r="F140">
         <f t="shared" si="16"/>
         <v>5</v>
-      </c>
-      <c r="G139">
-        <f t="shared" si="17"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A140">
-        <v>202</v>
-      </c>
-      <c r="B140">
-        <f t="shared" si="14"/>
-        <v>-0.97003125319454397</v>
-      </c>
-      <c r="C140">
-        <f t="shared" si="15"/>
-        <v>0.13281250000000022</v>
-      </c>
-      <c r="D140">
-        <f t="shared" si="12"/>
-        <v>1.6782659899661444E-2</v>
-      </c>
-      <c r="E140">
-        <f t="shared" si="13"/>
-        <v>-0.83721875319454375</v>
-      </c>
-      <c r="F140">
-        <f t="shared" si="16"/>
-        <v>4</v>
       </c>
       <c r="G140">
         <f t="shared" si="17"/>
@@ -10050,52 +10094,52 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B141">
         <f t="shared" si="14"/>
-        <v>-0.96377606579543995</v>
+        <v>-0.97003125319454397</v>
       </c>
       <c r="C141">
         <f t="shared" si="15"/>
-        <v>0.12109375000000012</v>
+        <v>0.13281250000000022</v>
       </c>
       <c r="D141">
         <f t="shared" si="12"/>
-        <v>1.3629256828596671E-2</v>
+        <v>1.6782659899661444E-2</v>
       </c>
       <c r="E141">
         <f t="shared" si="13"/>
-        <v>-0.84268231579543984</v>
+        <v>-0.83721875319454375</v>
       </c>
       <c r="F141">
         <f t="shared" si="16"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G141">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B142">
         <f t="shared" si="14"/>
-        <v>-0.95694033573220894</v>
+        <v>-0.96377606579543995</v>
       </c>
       <c r="C142">
         <f t="shared" si="15"/>
-        <v>0.109375</v>
+        <v>0.12109375000000012</v>
       </c>
       <c r="D142">
         <f t="shared" si="12"/>
-        <v>1.0810925422976332E-2</v>
+        <v>1.3629256828596671E-2</v>
       </c>
       <c r="E142">
         <f t="shared" si="13"/>
-        <v>-0.84756533573220894</v>
+        <v>-0.84268231579543984</v>
       </c>
       <c r="F142">
         <f t="shared" si="16"/>
@@ -10103,32 +10147,32 @@
       </c>
       <c r="G142">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B143">
         <f t="shared" si="14"/>
-        <v>-0.94952818059303679</v>
+        <v>-0.95694033573220894</v>
       </c>
       <c r="C143">
         <f t="shared" si="15"/>
-        <v>9.765625000000018E-2</v>
+        <v>0.109375</v>
       </c>
       <c r="D143">
         <f t="shared" si="12"/>
-        <v>8.3252891354488011E-3</v>
+        <v>1.0810925422976332E-2</v>
       </c>
       <c r="E143">
         <f t="shared" si="13"/>
-        <v>-0.85187193059303656</v>
+        <v>-0.84756533573220894</v>
       </c>
       <c r="F143">
         <f t="shared" si="16"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G143">
         <f t="shared" si="17"/>
@@ -10137,23 +10181,23 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B144">
         <f t="shared" si="14"/>
-        <v>-0.94154406518302092</v>
+        <v>-0.94952818059303679</v>
       </c>
       <c r="C144">
         <f t="shared" si="15"/>
-        <v>8.5937500000000097E-2</v>
+        <v>9.765625000000018E-2</v>
       </c>
       <c r="D144">
         <f t="shared" si="12"/>
-        <v>6.1697710155631594E-3</v>
+        <v>8.3252891354488011E-3</v>
       </c>
       <c r="E144">
         <f t="shared" si="13"/>
-        <v>-0.85560656518302081</v>
+        <v>-0.85187193059303656</v>
       </c>
       <c r="F144">
         <f t="shared" si="16"/>
@@ -10161,32 +10205,32 @@
       </c>
       <c r="G144">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B145">
         <f t="shared" si="14"/>
-        <v>-0.93299279883473907</v>
+        <v>-0.94154406518302092</v>
       </c>
       <c r="C145">
         <f t="shared" si="15"/>
-        <v>7.4218749999999986E-2</v>
+        <v>8.5937500000000097E-2</v>
       </c>
       <c r="D145">
         <f t="shared" si="12"/>
-        <v>4.3415952620287123E-3</v>
+        <v>6.1697710155631594E-3</v>
       </c>
       <c r="E145">
         <f t="shared" si="13"/>
-        <v>-0.85877404883473907</v>
+        <v>-0.85560656518302081</v>
       </c>
       <c r="F145">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G145">
         <f t="shared" si="17"/>
@@ -10195,23 +10239,23 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B146">
         <f t="shared" si="14"/>
-        <v>-0.92387953251128663</v>
+        <v>-0.93299279883473907</v>
       </c>
       <c r="C146">
         <f t="shared" si="15"/>
-        <v>6.2500000000000167E-2</v>
+        <v>7.4218749999999986E-2</v>
       </c>
       <c r="D146">
         <f t="shared" si="12"/>
-        <v>2.837788894753572E-3</v>
+        <v>4.3415952620287123E-3</v>
       </c>
       <c r="E146">
         <f t="shared" si="13"/>
-        <v>-0.86137953251128652</v>
+        <v>-0.85877404883473907</v>
       </c>
       <c r="F146">
         <f t="shared" si="16"/>
@@ -10224,52 +10268,52 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B147">
         <f t="shared" si="14"/>
-        <v>-0.91420975570353058</v>
+        <v>-0.92387953251128663</v>
       </c>
       <c r="C147">
         <f t="shared" si="15"/>
-        <v>5.0781250000000069E-2</v>
+        <v>6.2500000000000167E-2</v>
       </c>
       <c r="D147">
         <f t="shared" si="12"/>
-        <v>1.6551835456555758E-3</v>
+        <v>2.837788894753572E-3</v>
       </c>
       <c r="E147">
         <f t="shared" si="13"/>
-        <v>-0.86342850570353047</v>
+        <v>-0.86137953251128652</v>
       </c>
       <c r="F147">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G147">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B148">
         <f t="shared" si="14"/>
-        <v>-0.90398929312344334</v>
+        <v>-0.91420975570353058</v>
       </c>
       <c r="C148">
         <f t="shared" si="15"/>
-        <v>3.9062499999999965E-2</v>
+        <v>5.0781250000000069E-2</v>
       </c>
       <c r="D148">
         <f t="shared" si="12"/>
-        <v>7.9041736717048777E-4</v>
+        <v>1.6551835456555758E-3</v>
       </c>
       <c r="E148">
         <f t="shared" si="13"/>
-        <v>-0.86492679312344334</v>
+        <v>-0.86342850570353047</v>
       </c>
       <c r="F148">
         <f t="shared" si="16"/>
@@ -10282,23 +10326,23 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B149">
         <f t="shared" si="14"/>
-        <v>-0.89322430119551532</v>
+        <v>-0.90398929312344334</v>
       </c>
       <c r="C149">
         <f t="shared" si="15"/>
-        <v>2.7343750000000149E-2</v>
+        <v>3.9062499999999965E-2</v>
       </c>
       <c r="D149">
         <f t="shared" si="12"/>
-        <v>2.3993705730252898E-4</v>
+        <v>7.9041736717048777E-4</v>
       </c>
       <c r="E149">
         <f t="shared" si="13"/>
-        <v>-0.86588055119551521</v>
+        <v>-0.86492679312344334</v>
       </c>
       <c r="F149">
         <f t="shared" si="16"/>
@@ -10311,23 +10355,23 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B150">
         <f t="shared" si="14"/>
-        <v>-0.88192126434835505</v>
+        <v>-0.89322430119551532</v>
       </c>
       <c r="C150">
         <f t="shared" si="15"/>
-        <v>1.5625000000000045E-2</v>
+        <v>2.7343750000000149E-2</v>
       </c>
       <c r="D150">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2.3993705730252898E-4</v>
       </c>
       <c r="E150">
         <f t="shared" si="13"/>
-        <v>-0.86629626434835505</v>
+        <v>-0.86588055119551521</v>
       </c>
       <c r="F150">
         <f t="shared" si="16"/>
@@ -10340,23 +10384,23 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B151">
         <f t="shared" si="14"/>
-        <v>-0.87008699110871146</v>
+        <v>-0.88192126434835505</v>
       </c>
       <c r="C151">
         <f t="shared" si="15"/>
-        <v>3.9062500000002255E-3</v>
+        <v>1.5625000000000045E-2</v>
       </c>
       <c r="D151">
         <f t="shared" si="12"/>
-        <v>6.667651956845843E-5</v>
+        <v>0</v>
       </c>
       <c r="E151">
         <f t="shared" si="13"/>
-        <v>-0.86618074110871124</v>
+        <v>-0.86629626434835505</v>
       </c>
       <c r="F151">
         <f t="shared" si="16"/>
@@ -10369,23 +10413,23 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B152">
         <f t="shared" si="14"/>
-        <v>-0.85772861000027223</v>
+        <v>-0.87008699110871146</v>
       </c>
       <c r="C152">
         <f t="shared" si="15"/>
-        <v>-7.8124999999998768E-3</v>
+        <v>3.9062500000002255E-3</v>
       </c>
       <c r="D152">
         <f t="shared" si="12"/>
-        <v>4.358522477590119E-4</v>
+        <v>6.667651956845843E-5</v>
       </c>
       <c r="E152">
         <f t="shared" si="13"/>
-        <v>-0.86554111000027212</v>
+        <v>-0.86618074110871124</v>
       </c>
       <c r="F152">
         <f t="shared" si="16"/>
@@ -10398,23 +10442,23 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B153">
         <f t="shared" si="14"/>
-        <v>-0.84485356524970723</v>
+        <v>-0.85772861000027223</v>
       </c>
       <c r="C153">
         <f t="shared" si="15"/>
-        <v>-1.9531249999999979E-2</v>
+        <v>-7.8124999999998768E-3</v>
       </c>
       <c r="D153">
         <f t="shared" si="12"/>
-        <v>1.1032306021114215E-3</v>
+        <v>4.358522477590119E-4</v>
       </c>
       <c r="E153">
         <f t="shared" si="13"/>
-        <v>-0.86438481524970723</v>
+        <v>-0.86554111000027212</v>
       </c>
       <c r="F153">
         <f t="shared" si="16"/>
@@ -10427,27 +10471,27 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B154">
         <f t="shared" si="14"/>
-        <v>-0.83146961230254546</v>
+        <v>-0.84485356524970723</v>
       </c>
       <c r="C154">
         <f t="shared" si="15"/>
-        <v>-3.1249999999999799E-2</v>
+        <v>-1.9531249999999979E-2</v>
       </c>
       <c r="D154">
         <f t="shared" si="12"/>
-        <v>2.064335374053726E-3</v>
+        <v>1.1032306021114215E-3</v>
       </c>
       <c r="E154">
         <f t="shared" si="13"/>
-        <v>-0.86271961230254524</v>
+        <v>-0.86438481524970723</v>
       </c>
       <c r="F154">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G154">
         <f t="shared" si="17"/>
@@ -10456,23 +10500,23 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B155">
         <f t="shared" si="14"/>
-        <v>-0.81758481315158404</v>
+        <v>-0.83146961230254546</v>
       </c>
       <c r="C155">
         <f t="shared" si="15"/>
-        <v>-4.2968749999999889E-2</v>
+        <v>-3.1249999999999799E-2</v>
       </c>
       <c r="D155">
         <f t="shared" si="12"/>
-        <v>3.3145134252026863E-3</v>
+        <v>2.064335374053726E-3</v>
       </c>
       <c r="E155">
         <f t="shared" si="13"/>
-        <v>-0.86055356315158393</v>
+        <v>-0.86271961230254524</v>
       </c>
       <c r="F155">
         <f t="shared" si="16"/>
@@ -10480,28 +10524,28 @@
       </c>
       <c r="G155">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B156">
         <f t="shared" si="14"/>
-        <v>-0.80320753148064528</v>
+        <v>-0.81758481315158404</v>
       </c>
       <c r="C156">
         <f t="shared" si="15"/>
-        <v>-5.46875E-2</v>
+        <v>-4.2968749999999889E-2</v>
       </c>
       <c r="D156">
         <f t="shared" si="12"/>
-        <v>4.8489374902414848E-3</v>
+        <v>3.3145134252026863E-3</v>
       </c>
       <c r="E156">
         <f t="shared" si="13"/>
-        <v>-0.85789503148064528</v>
+        <v>-0.86055356315158393</v>
       </c>
       <c r="F156">
         <f t="shared" si="16"/>
@@ -10514,27 +10558,27 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B157">
         <f t="shared" si="14"/>
-        <v>-0.78834642762660612</v>
+        <v>-0.80320753148064528</v>
       </c>
       <c r="C157">
         <f t="shared" si="15"/>
-        <v>-6.6406250000000097E-2</v>
+        <v>-5.46875E-2</v>
       </c>
       <c r="D157">
         <f t="shared" si="12"/>
-        <v>6.6626090846831328E-3</v>
+        <v>4.8489374902414848E-3</v>
       </c>
       <c r="E157">
         <f t="shared" si="13"/>
-        <v>-0.85475267762660623</v>
+        <v>-0.85789503148064528</v>
       </c>
       <c r="F157">
         <f t="shared" si="16"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G157">
         <f t="shared" si="17"/>
@@ -10543,23 +10587,23 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B158">
         <f t="shared" si="14"/>
-        <v>-0.77301045336273688</v>
+        <v>-0.78834642762660612</v>
       </c>
       <c r="C158">
         <f t="shared" si="15"/>
-        <v>-7.8124999999999639E-2</v>
+        <v>-6.6406250000000097E-2</v>
       </c>
       <c r="D158">
         <f t="shared" si="12"/>
-        <v>8.7503615157701036E-3</v>
+        <v>6.6626090846831328E-3</v>
       </c>
       <c r="E158">
         <f t="shared" si="13"/>
-        <v>-0.85113545336273655</v>
+        <v>-0.85475267762660623</v>
       </c>
       <c r="F158">
         <f t="shared" si="16"/>
@@ -10567,32 +10611,32 @@
       </c>
       <c r="G158">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B159">
         <f t="shared" si="14"/>
-        <v>-0.75720884650648457</v>
+        <v>-0.77301045336273688</v>
       </c>
       <c r="C159">
         <f t="shared" si="15"/>
-        <v>-8.984374999999975E-2</v>
+        <v>-7.8124999999999639E-2</v>
       </c>
       <c r="D159">
         <f t="shared" si="12"/>
-        <v>1.1106862994697413E-2</v>
+        <v>8.7503615157701036E-3</v>
       </c>
       <c r="E159">
         <f t="shared" si="13"/>
-        <v>-0.84705259650648435</v>
+        <v>-0.85113545336273655</v>
       </c>
       <c r="F159">
         <f t="shared" si="16"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G159">
         <f t="shared" si="17"/>
@@ -10601,52 +10645,52 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B160">
         <f t="shared" si="14"/>
-        <v>-0.74095112535495911</v>
+        <v>-0.75720884650648457</v>
       </c>
       <c r="C160">
         <f t="shared" si="15"/>
-        <v>-0.10156249999999983</v>
+        <v>-8.984374999999975E-2</v>
       </c>
       <c r="D160">
         <f t="shared" si="12"/>
-        <v>1.3726619848283555E-2</v>
+        <v>1.1106862994697413E-2</v>
       </c>
       <c r="E160">
         <f t="shared" si="13"/>
-        <v>-0.84251362535495899</v>
+        <v>-0.84705259650648435</v>
       </c>
       <c r="F160">
         <f t="shared" si="16"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G160">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B161">
         <f t="shared" si="14"/>
-        <v>-0.724247082951467</v>
+        <v>-0.74095112535495911</v>
       </c>
       <c r="C161">
         <f t="shared" si="15"/>
-        <v>-0.11328124999999993</v>
+        <v>-0.10156249999999983</v>
       </c>
       <c r="D161">
         <f t="shared" si="12"/>
-        <v>1.6603979828152645E-2</v>
+        <v>1.3726619848283555E-2</v>
       </c>
       <c r="E161">
         <f t="shared" si="13"/>
-        <v>-0.83752833295146689</v>
+        <v>-0.84251362535495899</v>
       </c>
       <c r="F161">
         <f t="shared" si="16"/>
@@ -10654,32 +10698,32 @@
       </c>
       <c r="G161">
         <f t="shared" si="17"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B162">
         <f t="shared" si="14"/>
-        <v>-0.70710678118654768</v>
+        <v>-0.724247082951467</v>
       </c>
       <c r="C162">
         <f t="shared" si="15"/>
-        <v>-0.12500000000000003</v>
+        <v>-0.11328124999999993</v>
       </c>
       <c r="D162">
         <f t="shared" si="12"/>
-        <v>1.9733135515437875E-2</v>
+        <v>1.6603979828152645E-2</v>
       </c>
       <c r="E162">
         <f t="shared" si="13"/>
-        <v>-0.83210678118654768</v>
+        <v>-0.83752833295146689</v>
       </c>
       <c r="F162">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G162">
         <f t="shared" si="17"/>
@@ -10688,85 +10732,85 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B163">
         <f t="shared" si="14"/>
-        <v>-0.68954054473706716</v>
+        <v>-0.70710678118654768</v>
       </c>
       <c r="C163">
         <f t="shared" si="15"/>
-        <v>-0.13671875000000017</v>
+        <v>-0.12500000000000003</v>
       </c>
       <c r="D163">
         <f t="shared" si="12"/>
-        <v>2.3108127818953696E-2</v>
+        <v>1.9733135515437875E-2</v>
       </c>
       <c r="E163">
         <f t="shared" si="13"/>
-        <v>-0.82625929473706727</v>
+        <v>-0.83210678118654768</v>
       </c>
       <c r="F163">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G163">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B164">
         <f t="shared" si="14"/>
-        <v>-0.67155895484701866</v>
+        <v>-0.68954054473706716</v>
       </c>
       <c r="C164">
         <f t="shared" si="15"/>
-        <v>-0.14843749999999969</v>
+        <v>-0.13671875000000017</v>
       </c>
       <c r="D164">
         <f t="shared" si="12"/>
-        <v>2.6722849564729648E-2</v>
+        <v>2.3108127818953696E-2</v>
       </c>
       <c r="E164">
         <f t="shared" si="13"/>
-        <v>-0.81999645484701833</v>
+        <v>-0.82625929473706727</v>
       </c>
       <c r="F164">
         <f t="shared" si="16"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G164">
         <f t="shared" si="17"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B165">
         <f t="shared" si="14"/>
-        <v>-0.65317284295377709</v>
+        <v>-0.67155895484701866</v>
       </c>
       <c r="C165">
         <f t="shared" si="15"/>
-        <v>-0.16015624999999978</v>
+        <v>-0.14843749999999969</v>
       </c>
       <c r="D165">
         <f t="shared" si="12"/>
-        <v>3.0571049174742272E-2</v>
+        <v>2.6722849564729648E-2</v>
       </c>
       <c r="E165">
         <f t="shared" si="13"/>
-        <v>-0.81332909295377687</v>
+        <v>-0.81999645484701833</v>
       </c>
       <c r="F165">
         <f t="shared" si="16"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G165">
         <f t="shared" si="17"/>
@@ -10775,1709 +10819,1709 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B166">
         <f t="shared" si="14"/>
-        <v>-0.63439328416364593</v>
+        <v>-0.65317284295377709</v>
       </c>
       <c r="C166">
         <f t="shared" si="15"/>
-        <v>-0.17187499999999992</v>
+        <v>-0.16015624999999978</v>
       </c>
       <c r="D166">
         <f t="shared" si="12"/>
-        <v>3.4646334432633992E-2</v>
+        <v>3.0571049174742272E-2</v>
       </c>
       <c r="E166">
         <f t="shared" si="13"/>
-        <v>-0.80626828416364582</v>
+        <v>-0.81332909295377687</v>
       </c>
       <c r="F166">
         <f t="shared" si="16"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G166">
         <f t="shared" si="17"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B167">
         <f t="shared" si="14"/>
-        <v>-0.61523159058062737</v>
+        <v>-0.63439328416364593</v>
       </c>
       <c r="C167">
         <f t="shared" si="15"/>
-        <v>-0.18359374999999994</v>
+        <v>-0.17187499999999992</v>
       </c>
       <c r="D167">
         <f t="shared" si="12"/>
-        <v>3.8942176334143964E-2</v>
+        <v>3.4646334432633992E-2</v>
       </c>
       <c r="E167">
         <f t="shared" si="13"/>
-        <v>-0.79882534058062737</v>
+        <v>-0.80626828416364582</v>
       </c>
       <c r="F167">
         <f t="shared" si="16"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G167">
         <f t="shared" si="17"/>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B168">
         <f t="shared" si="14"/>
-        <v>-0.59569930449243325</v>
+        <v>-0.61523159058062737</v>
       </c>
       <c r="C168">
         <f t="shared" si="15"/>
-        <v>-0.19531250000000008</v>
+        <v>-0.18359374999999994</v>
       </c>
       <c r="D168">
         <f t="shared" si="12"/>
-        <v>4.3451913019936735E-2</v>
+        <v>3.8942176334143964E-2</v>
       </c>
       <c r="E168">
         <f t="shared" si="13"/>
-        <v>-0.79101180449243336</v>
+        <v>-0.79882534058062737</v>
       </c>
       <c r="F168">
         <f t="shared" si="16"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G168">
         <f t="shared" si="17"/>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B169">
         <f t="shared" si="14"/>
-        <v>-0.57580819141784523</v>
+        <v>-0.59569930449243325</v>
       </c>
       <c r="C169">
         <f t="shared" si="15"/>
-        <v>-0.20703124999999956</v>
+        <v>-0.19531250000000008</v>
       </c>
       <c r="D169">
         <f t="shared" si="12"/>
-        <v>4.8168753788456031E-2</v>
+        <v>4.3451913019936735E-2</v>
       </c>
       <c r="E169">
         <f t="shared" si="13"/>
-        <v>-0.78283944141784478</v>
+        <v>-0.79101180449243336</v>
       </c>
       <c r="F169">
         <f t="shared" si="16"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G169">
         <f t="shared" si="17"/>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B170">
         <f t="shared" si="14"/>
-        <v>-0.55557023301960218</v>
+        <v>-0.57580819141784523</v>
       </c>
       <c r="C170">
         <f t="shared" si="15"/>
-        <v>-0.21874999999999964</v>
+        <v>-0.20703124999999956</v>
       </c>
       <c r="D170">
         <f t="shared" si="12"/>
-        <v>5.3085783186390262E-2</v>
+        <v>4.8168753788456031E-2</v>
       </c>
       <c r="E170">
         <f t="shared" si="13"/>
-        <v>-0.77432023301960184</v>
+        <v>-0.78283944141784478</v>
       </c>
       <c r="F170">
         <f t="shared" si="16"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G170">
         <f t="shared" si="17"/>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B171">
         <f t="shared" si="14"/>
-        <v>-0.53499761988709726</v>
+        <v>-0.55557023301960218</v>
       </c>
       <c r="C171">
         <f t="shared" si="15"/>
-        <v>-0.23046874999999983</v>
+        <v>-0.21874999999999964</v>
       </c>
       <c r="D171">
         <f t="shared" si="12"/>
-        <v>5.8195965174283715E-2</v>
+        <v>5.3085783186390262E-2</v>
       </c>
       <c r="E171">
         <f t="shared" si="13"/>
-        <v>-0.76546636988709715</v>
+        <v>-0.77432023301960184</v>
       </c>
       <c r="F171">
         <f t="shared" si="16"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G171">
         <f t="shared" si="17"/>
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B172">
         <f t="shared" si="14"/>
-        <v>-0.51410274419322188</v>
+        <v>-0.53499761988709726</v>
       </c>
       <c r="C172">
         <f t="shared" si="15"/>
-        <v>-0.24218750000000006</v>
+        <v>-0.23046874999999983</v>
       </c>
       <c r="D172">
         <f t="shared" si="12"/>
-        <v>6.3492147364782717E-2</v>
+        <v>5.8195965174283715E-2</v>
       </c>
       <c r="E172">
         <f t="shared" si="13"/>
-        <v>-0.75629024419322199</v>
+        <v>-0.76546636988709715</v>
       </c>
       <c r="F172">
         <f t="shared" si="16"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G172">
         <f t="shared" si="17"/>
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B173">
         <f t="shared" si="14"/>
-        <v>-0.49289819222978426</v>
+        <v>-0.51410274419322188</v>
       </c>
       <c r="C173">
         <f t="shared" si="15"/>
-        <v>-0.2460937499999995</v>
+        <v>-0.24218750000000006</v>
       </c>
       <c r="D173">
         <f t="shared" si="12"/>
-        <v>7.347620401799386E-2</v>
+        <v>6.3492147364782717E-2</v>
       </c>
       <c r="E173">
         <f t="shared" si="13"/>
-        <v>-0.7389919422297837</v>
+        <v>-0.75629024419322199</v>
       </c>
       <c r="F173">
         <f t="shared" si="16"/>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G173">
         <f t="shared" si="17"/>
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B174">
         <f t="shared" si="14"/>
-        <v>-0.47139673682599792</v>
+        <v>-0.49289819222978426</v>
       </c>
       <c r="C174">
         <f t="shared" si="15"/>
-        <v>-0.23437499999999975</v>
+        <v>-0.2460937499999995</v>
       </c>
       <c r="D174">
         <f t="shared" si="12"/>
-        <v>9.2649901730274126E-2</v>
+        <v>7.347620401799386E-2</v>
       </c>
       <c r="E174">
         <f t="shared" si="13"/>
-        <v>-0.7057717368259977</v>
+        <v>-0.7389919422297837</v>
       </c>
       <c r="F174">
         <f t="shared" si="16"/>
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G174">
         <f t="shared" si="17"/>
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B175">
         <f t="shared" si="14"/>
-        <v>-0.44961132965460698</v>
+        <v>-0.47139673682599792</v>
       </c>
       <c r="C175">
         <f t="shared" si="15"/>
-        <v>-0.22265625000000031</v>
+        <v>-0.23437499999999975</v>
       </c>
       <c r="D175">
         <f t="shared" si="12"/>
-        <v>0.11198748781382542</v>
+        <v>9.2649901730274126E-2</v>
       </c>
       <c r="E175">
         <f t="shared" si="13"/>
-        <v>-0.67226757965460726</v>
+        <v>-0.7057717368259977</v>
       </c>
       <c r="F175">
         <f t="shared" si="16"/>
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G175">
         <f t="shared" si="17"/>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B176">
         <f t="shared" si="14"/>
-        <v>-0.42755509343028253</v>
+        <v>-0.44961132965460698</v>
       </c>
       <c r="C176">
         <f t="shared" si="15"/>
-        <v>-0.21093750000000019</v>
+        <v>-0.22265625000000031</v>
       </c>
       <c r="D176">
         <f t="shared" si="12"/>
-        <v>0.13148138823467664</v>
+        <v>0.11198748781382542</v>
       </c>
       <c r="E176">
         <f t="shared" si="13"/>
-        <v>-0.63849259343028275</v>
+        <v>-0.67226757965460726</v>
       </c>
       <c r="F176">
         <f t="shared" si="16"/>
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G176">
         <f t="shared" si="17"/>
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B177">
         <f t="shared" si="14"/>
-        <v>-0.40524131400499042</v>
+        <v>-0.42755509343028253</v>
       </c>
       <c r="C177">
         <f t="shared" si="15"/>
-        <v>-0.19921875000000014</v>
+        <v>-0.21093750000000019</v>
       </c>
       <c r="D177">
         <f t="shared" si="12"/>
-        <v>0.15112393480094413</v>
+        <v>0.13148138823467664</v>
       </c>
       <c r="E177">
         <f t="shared" si="13"/>
-        <v>-0.60446006400499053</v>
+        <v>-0.63849259343028275</v>
       </c>
       <c r="F177">
         <f t="shared" si="16"/>
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G177">
         <f t="shared" si="17"/>
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B178">
         <f t="shared" si="14"/>
-        <v>-0.38268343236509039</v>
+        <v>-0.40524131400499042</v>
       </c>
       <c r="C178">
         <f t="shared" si="15"/>
-        <v>-0.18750000000000008</v>
+        <v>-0.19921875000000014</v>
       </c>
       <c r="D178">
         <f t="shared" si="12"/>
-        <v>0.17090736978186463</v>
+        <v>0.15112393480094413</v>
       </c>
       <c r="E178">
         <f t="shared" si="13"/>
-        <v>-0.5701834323650905</v>
+        <v>-0.60446006400499053</v>
       </c>
       <c r="F178">
         <f t="shared" si="16"/>
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G178">
         <f t="shared" si="17"/>
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B179">
         <f t="shared" si="14"/>
-        <v>-0.359895036534988</v>
+        <v>-0.38268343236509039</v>
       </c>
       <c r="C179">
         <f t="shared" si="15"/>
-        <v>-0.17578124999999997</v>
+        <v>-0.18750000000000008</v>
       </c>
       <c r="D179">
         <f t="shared" si="12"/>
-        <v>0.19082385058076284</v>
+        <v>0.17090736978186463</v>
       </c>
       <c r="E179">
         <f t="shared" si="13"/>
-        <v>-0.535676286534988</v>
+        <v>-0.5701834323650905</v>
       </c>
       <c r="F179">
         <f t="shared" si="16"/>
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G179">
         <f t="shared" si="17"/>
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B180">
         <f t="shared" si="14"/>
-        <v>-0.33688985339222</v>
+        <v>-0.359895036534988</v>
       </c>
       <c r="C180">
         <f t="shared" si="15"/>
-        <v>-0.16406249999999983</v>
+        <v>-0.17578124999999997</v>
       </c>
       <c r="D180">
         <f t="shared" si="12"/>
-        <v>0.21086545445913593</v>
+        <v>0.19082385058076284</v>
       </c>
       <c r="E180">
         <f t="shared" si="13"/>
-        <v>-0.50095235339221977</v>
+        <v>-0.535676286534988</v>
       </c>
       <c r="F180">
         <f t="shared" si="16"/>
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G180">
         <f t="shared" si="17"/>
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B181">
         <f t="shared" si="14"/>
-        <v>-0.31368174039889152</v>
+        <v>-0.33688985339222</v>
       </c>
       <c r="C181">
         <f t="shared" si="15"/>
-        <v>-0.15234375000000033</v>
+        <v>-0.16406249999999983</v>
       </c>
       <c r="D181">
         <f t="shared" si="12"/>
-        <v>0.23102418330901767</v>
+        <v>0.21086545445913593</v>
       </c>
       <c r="E181">
         <f t="shared" si="13"/>
-        <v>-0.46602549039889185</v>
+        <v>-0.50095235339221977</v>
       </c>
       <c r="F181">
         <f t="shared" si="16"/>
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G181">
         <f t="shared" si="17"/>
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B182">
         <f t="shared" si="14"/>
-        <v>-0.2902846772544625</v>
+        <v>-0.31368174039889152</v>
       </c>
       <c r="C182">
         <f t="shared" si="15"/>
-        <v>-0.14062500000000022</v>
+        <v>-0.15234375000000033</v>
       </c>
       <c r="D182">
         <f t="shared" si="12"/>
-        <v>0.25129196847073942</v>
+        <v>0.23102418330901767</v>
       </c>
       <c r="E182">
         <f t="shared" si="13"/>
-        <v>-0.43090967725446272</v>
+        <v>-0.46602549039889185</v>
       </c>
       <c r="F182">
         <f t="shared" si="16"/>
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G182">
         <f t="shared" si="17"/>
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B183">
         <f t="shared" si="14"/>
-        <v>-0.26671275747489859</v>
+        <v>-0.2902846772544625</v>
       </c>
       <c r="C183">
         <f t="shared" si="15"/>
-        <v>-0.12890625000000008</v>
+        <v>-0.14062500000000022</v>
       </c>
       <c r="D183">
         <f t="shared" si="12"/>
-        <v>0.27166067559318696</v>
+        <v>0.25129196847073942</v>
       </c>
       <c r="E183">
         <f t="shared" si="13"/>
-        <v>-0.39561900747489864</v>
+        <v>-0.43090967725446272</v>
       </c>
       <c r="F183">
         <f t="shared" si="16"/>
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G183">
         <f t="shared" si="17"/>
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B184">
         <f t="shared" si="14"/>
-        <v>-0.24298017990326418</v>
+        <v>-0.26671275747489859</v>
       </c>
       <c r="C184">
         <f t="shared" si="15"/>
-        <v>-0.11718750000000003</v>
+        <v>-0.12890625000000008</v>
       </c>
       <c r="D184">
         <f t="shared" si="12"/>
-        <v>0.29212210953363094</v>
+        <v>0.27166067559318696</v>
       </c>
       <c r="E184">
         <f t="shared" si="13"/>
-        <v>-0.3601676799032642</v>
+        <v>-0.39561900747489864</v>
       </c>
       <c r="F184">
         <f t="shared" si="16"/>
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G184">
         <f t="shared" si="17"/>
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B185">
         <f t="shared" si="14"/>
-        <v>-0.21910124015687016</v>
+        <v>-0.24298017990326418</v>
       </c>
       <c r="C185">
         <f t="shared" si="15"/>
-        <v>-0.10546874999999989</v>
+        <v>-0.11718750000000003</v>
       </c>
       <c r="D185">
         <f t="shared" si="12"/>
-        <v>0.3126680192941742</v>
+        <v>0.29212210953363094</v>
       </c>
       <c r="E185">
         <f t="shared" si="13"/>
-        <v>-0.32456999015687005</v>
+        <v>-0.3601676799032642</v>
       </c>
       <c r="F185">
         <f t="shared" si="16"/>
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G185">
         <f t="shared" si="17"/>
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B186">
         <f t="shared" si="14"/>
-        <v>-0.19509032201612872</v>
+        <v>-0.21910124015687016</v>
       </c>
       <c r="C186">
         <f t="shared" si="15"/>
-        <v>-9.3750000000000361E-2</v>
+        <v>-0.10546874999999989</v>
       </c>
       <c r="D186">
         <f t="shared" si="12"/>
-        <v>0.33329010299184403</v>
+        <v>0.3126680192941742</v>
       </c>
       <c r="E186">
         <f t="shared" si="13"/>
-        <v>-0.28884032201612908</v>
+        <v>-0.32456999015687005</v>
       </c>
       <c r="F186">
         <f t="shared" si="16"/>
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G186">
         <f t="shared" si="17"/>
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B187">
         <f t="shared" si="14"/>
-        <v>-0.17096188876030177</v>
+        <v>-0.19509032201612872</v>
       </c>
       <c r="C187">
         <f t="shared" si="15"/>
-        <v>-8.2031250000000278E-2</v>
+        <v>-9.3750000000000361E-2</v>
       </c>
       <c r="D187">
         <f t="shared" si="12"/>
-        <v>0.35398001285933722</v>
+        <v>0.33329010299184403</v>
       </c>
       <c r="E187">
         <f t="shared" si="13"/>
-        <v>-0.25299313876030205</v>
+        <v>-0.28884032201612908</v>
       </c>
       <c r="F187">
         <f t="shared" si="16"/>
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G187">
         <f t="shared" si="17"/>
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B188">
         <f t="shared" si="14"/>
-        <v>-0.14673047445536239</v>
+        <v>-0.17096188876030177</v>
       </c>
       <c r="C188">
         <f t="shared" si="15"/>
-        <v>-7.0312500000000167E-2</v>
+        <v>-8.2031250000000278E-2</v>
       </c>
       <c r="D188">
         <f t="shared" si="12"/>
-        <v>0.37472936027340109</v>
+        <v>0.35398001285933722</v>
       </c>
       <c r="E188">
         <f t="shared" si="13"/>
-        <v>-0.21704297445536255</v>
+        <v>-0.25299313876030205</v>
       </c>
       <c r="F188">
         <f t="shared" si="16"/>
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G188">
         <f t="shared" si="17"/>
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B189">
         <f t="shared" si="14"/>
-        <v>-0.12241067519921603</v>
+        <v>-0.14673047445536239</v>
       </c>
       <c r="C189">
         <f t="shared" si="15"/>
-        <v>-5.8593750000000056E-2</v>
+        <v>-7.0312500000000167E-2</v>
       </c>
       <c r="D189">
         <f t="shared" si="12"/>
-        <v>0.39552972080782828</v>
+        <v>0.37472936027340109</v>
       </c>
       <c r="E189">
         <f t="shared" si="13"/>
-        <v>-0.18100442519921608</v>
+        <v>-0.21704297445536255</v>
       </c>
       <c r="F189">
         <f t="shared" si="16"/>
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G189">
         <f t="shared" si="17"/>
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B190">
         <f t="shared" si="14"/>
-        <v>-9.8017140329560506E-2</v>
+        <v>-0.12241067519921603</v>
       </c>
       <c r="C190">
         <f t="shared" si="15"/>
-        <v>-4.6874999999999958E-2</v>
+        <v>-5.8593750000000056E-2</v>
       </c>
       <c r="D190">
         <f t="shared" si="12"/>
-        <v>0.41637263930801366</v>
+        <v>0.39552972080782828</v>
       </c>
       <c r="E190">
         <f t="shared" si="13"/>
-        <v>-0.14489214032956046</v>
+        <v>-0.18100442519921608</v>
       </c>
       <c r="F190">
         <f t="shared" si="16"/>
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G190">
         <f t="shared" si="17"/>
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B191">
         <f t="shared" si="14"/>
-        <v>-7.3564563599667412E-2</v>
+        <v>-9.8017140329560506E-2</v>
       </c>
       <c r="C191">
         <f t="shared" si="15"/>
-        <v>-3.5156249999999854E-2</v>
+        <v>-4.6874999999999958E-2</v>
       </c>
       <c r="D191">
         <f t="shared" si="12"/>
-        <v>0.43724963498402641</v>
+        <v>0.41637263930801366</v>
       </c>
       <c r="E191">
         <f t="shared" si="13"/>
-        <v>-0.10872081359966726</v>
+        <v>-0.14489214032956046</v>
       </c>
       <c r="F191">
         <f t="shared" si="16"/>
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G191">
         <f t="shared" si="17"/>
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B192">
         <f t="shared" si="14"/>
-        <v>-4.9067674327418091E-2</v>
+        <v>-7.3564563599667412E-2</v>
       </c>
       <c r="C192">
         <f t="shared" si="15"/>
-        <v>-2.3437500000000319E-2</v>
+        <v>-3.5156249999999854E-2</v>
       </c>
       <c r="D192">
         <f t="shared" si="12"/>
-        <v>0.45815220651911837</v>
+        <v>0.43724963498402641</v>
       </c>
       <c r="E192">
         <f t="shared" si="13"/>
-        <v>-7.2505174327418404E-2</v>
+        <v>-0.10872081359966726</v>
       </c>
       <c r="F192">
         <f t="shared" si="16"/>
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G192">
         <f t="shared" si="17"/>
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B193">
         <f t="shared" si="14"/>
-        <v>-2.4541228522912448E-2</v>
+        <v>-4.9067674327418091E-2</v>
       </c>
       <c r="C193">
         <f t="shared" si="15"/>
-        <v>-1.1718750000000217E-2</v>
+        <v>-2.3437500000000319E-2</v>
       </c>
       <c r="D193">
         <f t="shared" si="12"/>
-        <v>0.47907183719060126</v>
+        <v>0.45815220651911837</v>
       </c>
       <c r="E193">
         <f t="shared" si="13"/>
-        <v>-3.6259978522912663E-2</v>
+        <v>-7.2505174327418404E-2</v>
       </c>
       <c r="F193">
         <f t="shared" si="16"/>
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G193">
         <f t="shared" si="17"/>
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B194">
         <f t="shared" si="14"/>
-        <v>-2.45029690981724E-16</v>
+        <v>-2.4541228522912448E-2</v>
       </c>
       <c r="C194">
         <f t="shared" si="15"/>
-        <v>-1.1699305957206295E-16</v>
+        <v>-1.1718750000000217E-2</v>
       </c>
       <c r="D194">
         <f t="shared" si="12"/>
-        <v>0.49999999999999983</v>
+        <v>0.47907183719060126</v>
       </c>
       <c r="E194">
         <f t="shared" si="13"/>
-        <v>-3.6202275055378697E-16</v>
+        <v>-3.6259978522912663E-2</v>
       </c>
       <c r="F194">
         <f t="shared" si="16"/>
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="G194">
         <f t="shared" si="17"/>
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B195">
         <f t="shared" si="14"/>
-        <v>2.4541228522911959E-2</v>
+        <v>-2.45029690981724E-16</v>
       </c>
       <c r="C195">
         <f t="shared" si="15"/>
-        <v>1.1718749999999988E-2</v>
+        <v>-1.1699305957206295E-16</v>
       </c>
       <c r="D195">
-        <f t="shared" ref="D195:D258" si="18">(E195-$E$1)/($F$1-$E$1)</f>
-        <v>0.52092816280939835</v>
+        <f t="shared" si="12"/>
+        <v>0.49999999999999983</v>
       </c>
       <c r="E195">
-        <f t="shared" ref="E195:E258" si="19">B195+C195</f>
-        <v>3.6259978522911948E-2</v>
+        <f t="shared" si="13"/>
+        <v>-3.6202275055378697E-16</v>
       </c>
       <c r="F195">
         <f t="shared" si="16"/>
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="G195">
         <f t="shared" si="17"/>
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196">
+        <v>257</v>
+      </c>
+      <c r="B196">
+        <f t="shared" si="14"/>
+        <v>2.4541228522911959E-2</v>
+      </c>
+      <c r="C196">
+        <f t="shared" si="15"/>
+        <v>1.1718749999999988E-2</v>
+      </c>
+      <c r="D196">
+        <f t="shared" ref="D196:D259" si="18">(E196-$E$2)/($F$2-$E$2)</f>
+        <v>0.52092816280939835</v>
+      </c>
+      <c r="E196">
+        <f t="shared" ref="E196:E259" si="19">B196+C196</f>
+        <v>3.6259978522911948E-2</v>
+      </c>
+      <c r="F196">
+        <f t="shared" si="16"/>
+        <v>133</v>
+      </c>
+      <c r="G196">
+        <f t="shared" si="17"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A197">
         <v>258</v>
       </c>
-      <c r="B196">
-        <f t="shared" ref="B196:B258" si="20">SIN(PI()*(A196/128))</f>
+      <c r="B197">
+        <f t="shared" ref="B197:B259" si="20">SIN(PI()*(A197/128))</f>
         <v>4.9067674327417599E-2</v>
       </c>
-      <c r="C196">
-        <f t="shared" ref="C196:C258" si="21">(2*$C$1/PI())*ASIN(SIN(3*A196*PI()/128))</f>
+      <c r="C197">
+        <f t="shared" ref="C197:C259" si="21">(2*$C$2/PI())*ASIN(SIN(3*A197*PI()/128))</f>
         <v>2.3437500000000083E-2</v>
       </c>
-      <c r="D196">
+      <c r="D197">
         <f t="shared" si="18"/>
         <v>0.54184779348088119</v>
       </c>
-      <c r="E196">
+      <c r="E197">
         <f t="shared" si="19"/>
         <v>7.2505174327417682E-2</v>
       </c>
-      <c r="F196">
-        <f t="shared" ref="F196:F258" si="22">ROUND(D196*255,0)</f>
+      <c r="F197">
+        <f t="shared" ref="F197:F259" si="22">ROUND(D197*255,0)</f>
         <v>138</v>
       </c>
-      <c r="G196">
-        <f t="shared" ref="G196:G258" si="23">ROUND(D196*212,0)</f>
+      <c r="G197">
+        <f t="shared" ref="G197:G259" si="23">ROUND(D197*$G$2,0)</f>
         <v>115</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A197">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A198">
         <v>259</v>
       </c>
-      <c r="B197">
+      <c r="B198">
         <f t="shared" si="20"/>
         <v>7.3564563599666927E-2</v>
       </c>
-      <c r="C197">
+      <c r="C198">
         <f t="shared" si="21"/>
         <v>3.5156249999999618E-2</v>
       </c>
-      <c r="D197">
+      <c r="D198">
         <f t="shared" si="18"/>
         <v>0.5627503650159732</v>
       </c>
-      <c r="E197">
+      <c r="E198">
         <f t="shared" si="19"/>
         <v>0.10872081359966654</v>
       </c>
-      <c r="F197">
+      <c r="F198">
         <f t="shared" si="22"/>
         <v>144</v>
       </c>
-      <c r="G197">
+      <c r="G198">
         <f t="shared" si="23"/>
         <v>119</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A198">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A199">
         <v>260</v>
       </c>
-      <c r="B198">
+      <c r="B199">
         <f t="shared" si="20"/>
         <v>9.8017140329560021E-2</v>
       </c>
-      <c r="C198">
+      <c r="C199">
         <f t="shared" si="21"/>
         <v>4.6874999999999729E-2</v>
       </c>
-      <c r="D198">
+      <c r="D199">
         <f t="shared" si="18"/>
         <v>0.58362736069198584</v>
       </c>
-      <c r="E198">
+      <c r="E199">
         <f t="shared" si="19"/>
         <v>0.14489214032955974</v>
       </c>
-      <c r="F198">
+      <c r="F199">
         <f t="shared" si="22"/>
         <v>149</v>
       </c>
-      <c r="G198">
+      <c r="G199">
         <f t="shared" si="23"/>
         <v>124</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A199">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A200">
         <v>261</v>
       </c>
-      <c r="B199">
+      <c r="B200">
         <f t="shared" si="20"/>
         <v>0.12241067519921554</v>
       </c>
-      <c r="C199">
+      <c r="C200">
         <f t="shared" si="21"/>
         <v>5.8593749999999827E-2</v>
       </c>
-      <c r="D199">
+      <c r="D200">
         <f t="shared" si="18"/>
         <v>0.60447027919217133</v>
       </c>
-      <c r="E199">
+      <c r="E200">
         <f t="shared" si="19"/>
         <v>0.18100442519921536</v>
       </c>
-      <c r="F199">
+      <c r="F200">
         <f t="shared" si="22"/>
         <v>154</v>
       </c>
-      <c r="G199">
+      <c r="G200">
         <f t="shared" si="23"/>
         <v>128</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A200">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A201">
         <v>262</v>
       </c>
-      <c r="B200">
+      <c r="B201">
         <f t="shared" si="20"/>
         <v>0.14673047445536189</v>
       </c>
-      <c r="C200">
+      <c r="C201">
         <f t="shared" si="21"/>
         <v>7.0312499999999917E-2</v>
       </c>
-      <c r="D200">
+      <c r="D201">
         <f t="shared" si="18"/>
         <v>0.62527063972659847</v>
       </c>
-      <c r="E200">
+      <c r="E201">
         <f t="shared" si="19"/>
         <v>0.2170429744553618</v>
       </c>
-      <c r="F200">
+      <c r="F201">
         <f t="shared" si="22"/>
         <v>159</v>
       </c>
-      <c r="G200">
+      <c r="G201">
         <f t="shared" si="23"/>
         <v>133</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A201">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A202">
         <v>263</v>
       </c>
-      <c r="B201">
+      <c r="B202">
         <f t="shared" si="20"/>
         <v>0.17096188876030127</v>
       </c>
-      <c r="C201">
+      <c r="C202">
         <f t="shared" si="21"/>
         <v>8.2031250000000028E-2</v>
       </c>
-      <c r="D201">
+      <c r="D202">
         <f t="shared" si="18"/>
         <v>0.64601998714066244</v>
       </c>
-      <c r="E201">
+      <c r="E202">
         <f t="shared" si="19"/>
         <v>0.25299313876030127</v>
       </c>
-      <c r="F201">
+      <c r="F202">
         <f t="shared" si="22"/>
         <v>165</v>
       </c>
-      <c r="G201">
+      <c r="G202">
         <f t="shared" si="23"/>
         <v>137</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A202">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A203">
         <v>264</v>
       </c>
-      <c r="B202">
+      <c r="B203">
         <f t="shared" si="20"/>
         <v>0.19509032201612825</v>
       </c>
-      <c r="C202">
+      <c r="C203">
         <f t="shared" si="21"/>
         <v>9.3750000000000111E-2</v>
       </c>
-      <c r="D202">
+      <c r="D203">
         <f t="shared" si="18"/>
         <v>0.66670989700815553</v>
       </c>
-      <c r="E202">
+      <c r="E203">
         <f t="shared" si="19"/>
         <v>0.28884032201612836</v>
       </c>
-      <c r="F202">
+      <c r="F203">
         <f t="shared" si="22"/>
         <v>170</v>
       </c>
-      <c r="G202">
+      <c r="G203">
         <f t="shared" si="23"/>
         <v>141</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A203">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A204">
         <v>265</v>
       </c>
-      <c r="B203">
+      <c r="B204">
         <f t="shared" si="20"/>
         <v>0.21910124015686969</v>
       </c>
-      <c r="C203">
+      <c r="C204">
         <f t="shared" si="21"/>
         <v>0.10546874999999967</v>
       </c>
-      <c r="D203">
+      <c r="D204">
         <f t="shared" si="18"/>
         <v>0.68733198070582546</v>
       </c>
-      <c r="E203">
+      <c r="E204">
         <f t="shared" si="19"/>
         <v>0.32456999015686938</v>
       </c>
-      <c r="F203">
+      <c r="F204">
         <f t="shared" si="22"/>
         <v>175</v>
       </c>
-      <c r="G203">
+      <c r="G204">
         <f t="shared" si="23"/>
         <v>146</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A204">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A205">
         <v>266</v>
       </c>
-      <c r="B204">
+      <c r="B205">
         <f t="shared" si="20"/>
         <v>0.2429801799032637</v>
       </c>
-      <c r="C204">
+      <c r="C205">
         <f t="shared" si="21"/>
         <v>0.11718749999999976</v>
       </c>
-      <c r="D204">
+      <c r="D205">
         <f t="shared" si="18"/>
         <v>0.70787789046636873</v>
       </c>
-      <c r="E204">
+      <c r="E205">
         <f t="shared" si="19"/>
         <v>0.36016767990326348</v>
       </c>
-      <c r="F204">
+      <c r="F205">
         <f t="shared" si="22"/>
         <v>181</v>
       </c>
-      <c r="G204">
+      <c r="G205">
         <f t="shared" si="23"/>
         <v>150</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A205">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A206">
         <v>267</v>
       </c>
-      <c r="B205">
+      <c r="B206">
         <f t="shared" si="20"/>
         <v>0.26671275747489809</v>
       </c>
-      <c r="C205">
+      <c r="C206">
         <f t="shared" si="21"/>
         <v>0.12890624999999989</v>
       </c>
-      <c r="D205">
+      <c r="D206">
         <f t="shared" si="18"/>
         <v>0.72833932440681259</v>
       </c>
-      <c r="E205">
+      <c r="E206">
         <f t="shared" si="19"/>
         <v>0.39561900747489798</v>
       </c>
-      <c r="F205">
+      <c r="F206">
         <f t="shared" si="22"/>
         <v>186</v>
       </c>
-      <c r="G205">
+      <c r="G206">
         <f t="shared" si="23"/>
         <v>154</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A206">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A207">
         <v>268</v>
       </c>
-      <c r="B206">
+      <c r="B207">
         <f t="shared" si="20"/>
         <v>0.290284677254462</v>
       </c>
-      <c r="C206">
+      <c r="C207">
         <f t="shared" si="21"/>
         <v>0.14062499999999997</v>
       </c>
-      <c r="D206">
+      <c r="D207">
         <f t="shared" si="18"/>
         <v>0.74870803152926013</v>
       </c>
-      <c r="E206">
+      <c r="E207">
         <f t="shared" si="19"/>
         <v>0.43090967725446194</v>
       </c>
-      <c r="F206">
+      <c r="F207">
         <f t="shared" si="22"/>
         <v>191</v>
       </c>
-      <c r="G206">
+      <c r="G207">
         <f t="shared" si="23"/>
         <v>159</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A207">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A208">
         <v>269</v>
       </c>
-      <c r="B207">
+      <c r="B208">
         <f t="shared" si="20"/>
         <v>0.31368174039889107</v>
       </c>
-      <c r="C207">
+      <c r="C208">
         <f t="shared" si="21"/>
         <v>0.15234375000000008</v>
       </c>
-      <c r="D207">
+      <c r="D208">
         <f t="shared" si="18"/>
         <v>0.76897581669098203</v>
       </c>
-      <c r="E207">
+      <c r="E208">
         <f t="shared" si="19"/>
         <v>0.46602549039889118</v>
       </c>
-      <c r="F207">
+      <c r="F208">
         <f t="shared" si="22"/>
         <v>196</v>
       </c>
-      <c r="G207">
+      <c r="G208">
         <f t="shared" si="23"/>
         <v>163</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A208">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A209">
         <v>270</v>
       </c>
-      <c r="B208">
+      <c r="B209">
         <f t="shared" si="20"/>
         <v>0.33688985339221955</v>
       </c>
-      <c r="C208">
+      <c r="C209">
         <f t="shared" si="21"/>
         <v>0.16406249999999961</v>
       </c>
-      <c r="D208">
+      <c r="D209">
         <f t="shared" si="18"/>
         <v>0.78913454554086371</v>
       </c>
-      <c r="E208">
+      <c r="E209">
         <f t="shared" si="19"/>
         <v>0.50095235339221911</v>
       </c>
-      <c r="F208">
+      <c r="F209">
         <f t="shared" si="22"/>
         <v>201</v>
       </c>
-      <c r="G208">
+      <c r="G209">
         <f t="shared" si="23"/>
         <v>167</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A209">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A210">
         <v>271</v>
       </c>
-      <c r="B209">
+      <c r="B210">
         <f t="shared" si="20"/>
         <v>0.35989503653498756</v>
       </c>
-      <c r="C209">
+      <c r="C210">
         <f t="shared" si="21"/>
         <v>0.17578124999999969</v>
       </c>
-      <c r="D209">
+      <c r="D210">
         <f t="shared" si="18"/>
         <v>0.80917614941923677</v>
       </c>
-      <c r="E209">
+      <c r="E210">
         <f t="shared" si="19"/>
         <v>0.53567628653498722</v>
       </c>
-      <c r="F209">
+      <c r="F210">
         <f t="shared" si="22"/>
         <v>206</v>
       </c>
-      <c r="G209">
+      <c r="G210">
         <f t="shared" si="23"/>
         <v>172</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A210">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A211">
         <v>272</v>
       </c>
-      <c r="B210">
+      <c r="B211">
         <f t="shared" si="20"/>
         <v>0.38268343236508995</v>
       </c>
-      <c r="C210">
+      <c r="C211">
         <f t="shared" si="21"/>
         <v>0.18749999999999983</v>
       </c>
-      <c r="D210">
+      <c r="D211">
         <f t="shared" si="18"/>
         <v>0.82909263021813506</v>
       </c>
-      <c r="E210">
+      <c r="E211">
         <f t="shared" si="19"/>
         <v>0.57018343236508984</v>
       </c>
-      <c r="F210">
+      <c r="F211">
         <f t="shared" si="22"/>
         <v>211</v>
       </c>
-      <c r="G210">
+      <c r="G211">
         <f t="shared" si="23"/>
         <v>176</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A211">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A212">
         <v>273</v>
       </c>
-      <c r="B211">
+      <c r="B212">
         <f t="shared" si="20"/>
         <v>0.40524131400498997</v>
       </c>
-      <c r="C211">
+      <c r="C212">
         <f t="shared" si="21"/>
         <v>0.19921874999999989</v>
       </c>
-      <c r="D211">
+      <c r="D212">
         <f t="shared" si="18"/>
         <v>0.84887606519905545</v>
       </c>
-      <c r="E211">
+      <c r="E212">
         <f t="shared" si="19"/>
         <v>0.60446006400498986</v>
       </c>
-      <c r="F211">
+      <c r="F212">
         <f t="shared" si="22"/>
         <v>216</v>
       </c>
-      <c r="G211">
+      <c r="G212">
         <f t="shared" si="23"/>
         <v>180</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A212">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A213">
         <v>274</v>
       </c>
-      <c r="B212">
+      <c r="B213">
         <f t="shared" si="20"/>
         <v>0.42755509343028208</v>
       </c>
-      <c r="C212">
+      <c r="C213">
         <f t="shared" si="21"/>
         <v>0.2109375</v>
       </c>
-      <c r="D212">
+      <c r="D213">
         <f t="shared" si="18"/>
         <v>0.86851861176532286</v>
       </c>
-      <c r="E212">
+      <c r="E213">
         <f t="shared" si="19"/>
         <v>0.63849259343028208</v>
       </c>
-      <c r="F212">
+      <c r="F213">
         <f t="shared" si="22"/>
         <v>221</v>
       </c>
-      <c r="G212">
+      <c r="G213">
         <f t="shared" si="23"/>
         <v>184</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A213">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A214">
         <v>275</v>
       </c>
-      <c r="B213">
+      <c r="B214">
         <f t="shared" si="20"/>
         <v>0.44961132965460654</v>
       </c>
-      <c r="C213">
+      <c r="C214">
         <f t="shared" si="21"/>
         <v>0.22265625000000011</v>
       </c>
-      <c r="D213">
+      <c r="D214">
         <f t="shared" si="18"/>
         <v>0.88801251218617416</v>
       </c>
-      <c r="E213">
+      <c r="E214">
         <f t="shared" si="19"/>
         <v>0.67226757965460671</v>
       </c>
-      <c r="F213">
+      <c r="F214">
         <f t="shared" si="22"/>
         <v>226</v>
       </c>
-      <c r="G213">
+      <c r="G214">
         <f t="shared" si="23"/>
         <v>188</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A214">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A215">
         <v>276</v>
       </c>
-      <c r="B214">
+      <c r="B215">
         <f t="shared" si="20"/>
         <v>0.47139673682599753</v>
       </c>
-      <c r="C214">
+      <c r="C215">
         <f t="shared" si="21"/>
         <v>0.23437499999999975</v>
       </c>
-      <c r="D214">
+      <c r="D215">
         <f t="shared" si="18"/>
         <v>0.90735009826972568</v>
       </c>
-      <c r="E214">
+      <c r="E215">
         <f t="shared" si="19"/>
         <v>0.70577173682599725</v>
       </c>
-      <c r="F214">
+      <c r="F215">
         <f t="shared" si="22"/>
         <v>231</v>
       </c>
-      <c r="G214">
+      <c r="G215">
         <f t="shared" si="23"/>
         <v>192</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A215">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A216">
         <v>277</v>
       </c>
-      <c r="B215">
+      <c r="B216">
         <f t="shared" si="20"/>
         <v>0.49289819222978382</v>
       </c>
-      <c r="C215">
+      <c r="C216">
         <f t="shared" si="21"/>
         <v>0.2460937499999995</v>
       </c>
-      <c r="D215">
+      <c r="D216">
         <f t="shared" si="18"/>
         <v>0.92652379598200596</v>
       </c>
-      <c r="E215">
+      <c r="E216">
         <f t="shared" si="19"/>
         <v>0.73899194222978326</v>
       </c>
-      <c r="F215">
+      <c r="F216">
         <f t="shared" si="22"/>
         <v>236</v>
       </c>
-      <c r="G215">
+      <c r="G216">
         <f t="shared" si="23"/>
         <v>196</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A216">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A217">
         <v>278</v>
       </c>
-      <c r="B216">
+      <c r="B217">
         <f t="shared" si="20"/>
         <v>0.51410274419322144</v>
       </c>
-      <c r="C216">
+      <c r="C217">
         <f t="shared" si="21"/>
         <v>0.24218750000000006</v>
       </c>
-      <c r="D216">
+      <c r="D217">
         <f t="shared" si="18"/>
         <v>0.93650785263521696</v>
       </c>
-      <c r="E216">
+      <c r="E217">
         <f t="shared" si="19"/>
         <v>0.75629024419322155</v>
       </c>
-      <c r="F216">
+      <c r="F217">
         <f t="shared" si="22"/>
         <v>239</v>
       </c>
-      <c r="G216">
+      <c r="G217">
         <f t="shared" si="23"/>
         <v>199</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A217">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A218">
         <v>279</v>
       </c>
-      <c r="B217">
+      <c r="B218">
         <f t="shared" si="20"/>
         <v>0.53499761988709682</v>
       </c>
-      <c r="C217">
+      <c r="C218">
         <f t="shared" si="21"/>
         <v>0.23046875000000011</v>
       </c>
-      <c r="D217">
+      <c r="D218">
         <f t="shared" si="18"/>
         <v>0.94180403482571606</v>
       </c>
-      <c r="E217">
+      <c r="E218">
         <f t="shared" si="19"/>
         <v>0.76546636988709693</v>
       </c>
-      <c r="F217">
+      <c r="F218">
         <f t="shared" si="22"/>
         <v>240</v>
       </c>
-      <c r="G217">
+      <c r="G218">
         <f t="shared" si="23"/>
         <v>200</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A218">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A219">
         <v>280</v>
       </c>
-      <c r="B218">
+      <c r="B219">
         <f t="shared" si="20"/>
         <v>0.55557023301960184</v>
       </c>
-      <c r="C218">
+      <c r="C219">
         <f t="shared" si="21"/>
         <v>0.21875</v>
       </c>
-      <c r="D218">
+      <c r="D219">
         <f t="shared" si="18"/>
         <v>0.94691421681360977</v>
       </c>
-      <c r="E218">
+      <c r="E219">
         <f t="shared" si="19"/>
         <v>0.77432023301960184</v>
       </c>
-      <c r="F218">
+      <c r="F219">
         <f t="shared" si="22"/>
         <v>241</v>
       </c>
-      <c r="G218">
+      <c r="G219">
         <f t="shared" si="23"/>
         <v>201</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A219">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A220">
         <v>281</v>
       </c>
-      <c r="B219">
+      <c r="B220">
         <f t="shared" si="20"/>
         <v>0.57580819141784478</v>
       </c>
-      <c r="C219">
+      <c r="C220">
         <f t="shared" si="21"/>
         <v>0.20703124999999986</v>
       </c>
-      <c r="D219">
+      <c r="D220">
         <f t="shared" si="18"/>
         <v>0.95183124621154391</v>
       </c>
-      <c r="E219">
+      <c r="E220">
         <f t="shared" si="19"/>
         <v>0.78283944141784467</v>
       </c>
-      <c r="F219">
+      <c r="F220">
         <f t="shared" si="22"/>
         <v>243</v>
       </c>
-      <c r="G219">
+      <c r="G220">
         <f t="shared" si="23"/>
         <v>202</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A220">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A221">
         <v>282</v>
       </c>
-      <c r="B220">
+      <c r="B221">
         <f t="shared" si="20"/>
         <v>0.5956993044924328</v>
       </c>
-      <c r="C220">
+      <c r="C221">
         <f t="shared" si="21"/>
         <v>0.19531250000000033</v>
       </c>
-      <c r="D220">
+      <c r="D221">
         <f t="shared" si="18"/>
         <v>0.95654808698006311</v>
       </c>
-      <c r="E220">
+      <c r="E221">
         <f t="shared" si="19"/>
         <v>0.79101180449243313</v>
       </c>
-      <c r="F220">
+      <c r="F221">
         <f t="shared" si="22"/>
         <v>244</v>
       </c>
-      <c r="G220">
+      <c r="G221">
         <f t="shared" si="23"/>
         <v>203</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A221">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A222">
         <v>283</v>
       </c>
-      <c r="B221">
+      <c r="B222">
         <f t="shared" si="20"/>
         <v>0.61523159058062693</v>
       </c>
-      <c r="C221">
+      <c r="C222">
         <f t="shared" si="21"/>
         <v>0.18359375000000022</v>
       </c>
-      <c r="D221">
+      <c r="D222">
         <f t="shared" si="18"/>
         <v>0.96105782366585579</v>
       </c>
-      <c r="E221">
+      <c r="E222">
         <f t="shared" si="19"/>
         <v>0.79882534058062715</v>
       </c>
-      <c r="F221">
+      <c r="F222">
         <f t="shared" si="22"/>
         <v>245</v>
       </c>
-      <c r="G221">
+      <c r="G222">
         <f t="shared" si="23"/>
         <v>204</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A222">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A223">
         <v>284</v>
       </c>
-      <c r="B222">
+      <c r="B223">
         <f t="shared" si="20"/>
         <v>0.6343932841636456</v>
       </c>
-      <c r="C222">
+      <c r="C223">
         <f t="shared" si="21"/>
         <v>0.17187500000000014</v>
       </c>
-      <c r="D222">
+      <c r="D223">
         <f t="shared" si="18"/>
         <v>0.9653536655673659</v>
       </c>
-      <c r="E222">
+      <c r="E223">
         <f t="shared" si="19"/>
         <v>0.80626828416364571</v>
       </c>
-      <c r="F222">
+      <c r="F223">
         <f t="shared" si="22"/>
         <v>246</v>
       </c>
-      <c r="G222">
+      <c r="G223">
         <f t="shared" si="23"/>
         <v>205</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A223">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A224">
         <v>285</v>
       </c>
-      <c r="B223">
+      <c r="B224">
         <f t="shared" si="20"/>
         <v>0.65317284295377676</v>
       </c>
-      <c r="C223">
+      <c r="C224">
         <f t="shared" si="21"/>
         <v>0.16015625000000003</v>
       </c>
-      <c r="D223">
+      <c r="D224">
         <f t="shared" si="18"/>
         <v>0.96942895082525771</v>
       </c>
-      <c r="E223">
+      <c r="E224">
         <f t="shared" si="19"/>
         <v>0.81332909295377676</v>
       </c>
-      <c r="F223">
+      <c r="F224">
         <f t="shared" si="22"/>
         <v>247</v>
-      </c>
-      <c r="G223">
-        <f t="shared" si="23"/>
-        <v>206</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A224">
-        <v>286</v>
-      </c>
-      <c r="B224">
-        <f t="shared" si="20"/>
-        <v>0.67155895484701833</v>
-      </c>
-      <c r="C224">
-        <f t="shared" si="21"/>
-        <v>0.14843749999999992</v>
-      </c>
-      <c r="D224">
-        <f t="shared" si="18"/>
-        <v>0.9732771504352703</v>
-      </c>
-      <c r="E224">
-        <f t="shared" si="19"/>
-        <v>0.81999645484701822</v>
-      </c>
-      <c r="F224">
-        <f t="shared" si="22"/>
-        <v>248</v>
       </c>
       <c r="G224">
         <f t="shared" si="23"/>
@@ -12486,85 +12530,85 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B225">
         <f t="shared" si="20"/>
-        <v>0.68954054473706683</v>
+        <v>0.67155895484701833</v>
       </c>
       <c r="C225">
         <f t="shared" si="21"/>
-        <v>0.13671875000000039</v>
+        <v>0.14843749999999992</v>
       </c>
       <c r="D225">
         <f t="shared" si="18"/>
-        <v>0.97689187218104634</v>
+        <v>0.9732771504352703</v>
       </c>
       <c r="E225">
         <f t="shared" si="19"/>
-        <v>0.82625929473706727</v>
+        <v>0.81999645484701822</v>
       </c>
       <c r="F225">
         <f t="shared" si="22"/>
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G225">
         <f t="shared" si="23"/>
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B226">
         <f t="shared" si="20"/>
-        <v>0.70710678118654735</v>
+        <v>0.68954054473706683</v>
       </c>
       <c r="C226">
         <f t="shared" si="21"/>
-        <v>0.12500000000000028</v>
+        <v>0.13671875000000039</v>
       </c>
       <c r="D226">
         <f t="shared" si="18"/>
-        <v>0.98026686448456224</v>
+        <v>0.97689187218104634</v>
       </c>
       <c r="E226">
         <f t="shared" si="19"/>
-        <v>0.83210678118654768</v>
+        <v>0.82625929473706727</v>
       </c>
       <c r="F226">
         <f t="shared" si="22"/>
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G226">
         <f t="shared" si="23"/>
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B227">
         <f t="shared" si="20"/>
-        <v>0.72424708295146667</v>
+        <v>0.70710678118654735</v>
       </c>
       <c r="C227">
         <f t="shared" si="21"/>
-        <v>0.11328125000000017</v>
+        <v>0.12500000000000028</v>
       </c>
       <c r="D227">
         <f t="shared" si="18"/>
-        <v>0.98339602017184746</v>
+        <v>0.98026686448456224</v>
       </c>
       <c r="E227">
         <f t="shared" si="19"/>
-        <v>0.83752833295146689</v>
+        <v>0.83210678118654768</v>
       </c>
       <c r="F227">
         <f t="shared" si="22"/>
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G227">
         <f t="shared" si="23"/>
@@ -12573,23 +12617,23 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B228">
         <f t="shared" si="20"/>
-        <v>0.74095112535495877</v>
+        <v>0.72424708295146667</v>
       </c>
       <c r="C228">
         <f t="shared" si="21"/>
-        <v>0.10156250000000007</v>
+        <v>0.11328125000000017</v>
       </c>
       <c r="D228">
         <f t="shared" si="18"/>
-        <v>0.98627338015171639</v>
+        <v>0.98339602017184746</v>
       </c>
       <c r="E228">
         <f t="shared" si="19"/>
-        <v>0.84251362535495888</v>
+        <v>0.83752833295146689</v>
       </c>
       <c r="F228">
         <f t="shared" si="22"/>
@@ -12597,61 +12641,61 @@
       </c>
       <c r="G228">
         <f t="shared" si="23"/>
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B229">
         <f t="shared" si="20"/>
-        <v>0.75720884650648423</v>
+        <v>0.74095112535495877</v>
       </c>
       <c r="C229">
         <f t="shared" si="21"/>
-        <v>8.9843749999999986E-2</v>
+        <v>0.10156250000000007</v>
       </c>
       <c r="D229">
         <f t="shared" si="18"/>
-        <v>0.98889313700530257</v>
+        <v>0.98627338015171639</v>
       </c>
       <c r="E229">
         <f t="shared" si="19"/>
-        <v>0.84705259650648423</v>
+        <v>0.84251362535495888</v>
       </c>
       <c r="F229">
         <f t="shared" si="22"/>
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G229">
         <f t="shared" si="23"/>
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B230">
         <f t="shared" si="20"/>
-        <v>0.77301045336273655</v>
+        <v>0.75720884650648423</v>
       </c>
       <c r="C230">
         <f t="shared" si="21"/>
-        <v>7.8124999999999875E-2</v>
+        <v>8.9843749999999986E-2</v>
       </c>
       <c r="D230">
         <f t="shared" si="18"/>
-        <v>0.99124963848422976</v>
+        <v>0.98889313700530257</v>
       </c>
       <c r="E230">
         <f t="shared" si="19"/>
-        <v>0.85113545336273644</v>
+        <v>0.84705259650648423</v>
       </c>
       <c r="F230">
         <f t="shared" si="22"/>
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G230">
         <f t="shared" si="23"/>
@@ -12660,23 +12704,23 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B231">
         <f t="shared" si="20"/>
-        <v>0.78834642762660578</v>
+        <v>0.77301045336273655</v>
       </c>
       <c r="C231">
         <f t="shared" si="21"/>
-        <v>6.6406250000000347E-2</v>
+        <v>7.8124999999999875E-2</v>
       </c>
       <c r="D231">
         <f t="shared" si="18"/>
-        <v>0.99333739091531692</v>
+        <v>0.99124963848422976</v>
       </c>
       <c r="E231">
         <f t="shared" si="19"/>
-        <v>0.85475267762660612</v>
+        <v>0.85113545336273644</v>
       </c>
       <c r="F231">
         <f t="shared" si="22"/>
@@ -12684,32 +12728,32 @@
       </c>
       <c r="G231">
         <f t="shared" si="23"/>
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B232">
         <f t="shared" si="20"/>
-        <v>0.80320753148064494</v>
+        <v>0.78834642762660578</v>
       </c>
       <c r="C232">
         <f t="shared" si="21"/>
-        <v>5.4687500000000243E-2</v>
+        <v>6.6406250000000347E-2</v>
       </c>
       <c r="D232">
         <f t="shared" si="18"/>
-        <v>0.99515106250975849</v>
+        <v>0.99333739091531692</v>
       </c>
       <c r="E232">
         <f t="shared" si="19"/>
-        <v>0.85789503148064516</v>
+        <v>0.85475267762660612</v>
       </c>
       <c r="F232">
         <f t="shared" si="22"/>
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G232">
         <f t="shared" si="23"/>
@@ -12718,23 +12762,23 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B233">
         <f t="shared" si="20"/>
-        <v>0.81758481315158371</v>
+        <v>0.80320753148064494</v>
       </c>
       <c r="C233">
         <f t="shared" si="21"/>
-        <v>4.2968750000000132E-2</v>
+        <v>5.4687500000000243E-2</v>
       </c>
       <c r="D233">
         <f t="shared" si="18"/>
-        <v>0.99668548657479727</v>
+        <v>0.99515106250975849</v>
       </c>
       <c r="E233">
         <f t="shared" si="19"/>
-        <v>0.86055356315158382</v>
+        <v>0.85789503148064516</v>
       </c>
       <c r="F233">
         <f t="shared" si="22"/>
@@ -12747,23 +12791,23 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B234">
         <f t="shared" si="20"/>
-        <v>0.83146961230254524</v>
+        <v>0.81758481315158371</v>
       </c>
       <c r="C234">
         <f t="shared" si="21"/>
-        <v>3.1250000000000035E-2</v>
+        <v>4.2968750000000132E-2</v>
       </c>
       <c r="D234">
         <f t="shared" si="18"/>
-        <v>0.99793566462594629</v>
+        <v>0.99668548657479727</v>
       </c>
       <c r="E234">
         <f t="shared" si="19"/>
-        <v>0.86271961230254524</v>
+        <v>0.86055356315158382</v>
       </c>
       <c r="F234">
         <f t="shared" si="22"/>
@@ -12771,32 +12815,32 @@
       </c>
       <c r="G234">
         <f t="shared" si="23"/>
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B235">
         <f t="shared" si="20"/>
-        <v>0.84485356524970701</v>
+        <v>0.83146961230254524</v>
       </c>
       <c r="C235">
         <f t="shared" si="21"/>
-        <v>1.9531249999999931E-2</v>
+        <v>3.1250000000000035E-2</v>
       </c>
       <c r="D235">
         <f t="shared" si="18"/>
-        <v>0.99889676939788841</v>
+        <v>0.99793566462594629</v>
       </c>
       <c r="E235">
         <f t="shared" si="19"/>
-        <v>0.86438481524970689</v>
+        <v>0.86271961230254524</v>
       </c>
       <c r="F235">
         <f t="shared" si="22"/>
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G235">
         <f t="shared" si="23"/>
@@ -12805,23 +12849,23 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B236">
         <f t="shared" si="20"/>
-        <v>0.85772861000027201</v>
+        <v>0.84485356524970701</v>
       </c>
       <c r="C236">
         <f t="shared" si="21"/>
-        <v>7.812500000000392E-3</v>
+        <v>1.9531249999999931E-2</v>
       </c>
       <c r="D236">
         <f t="shared" si="18"/>
-        <v>0.99956414775224123</v>
+        <v>0.99889676939788841</v>
       </c>
       <c r="E236">
         <f t="shared" si="19"/>
-        <v>0.86554111000027245</v>
+        <v>0.86438481524970689</v>
       </c>
       <c r="F236">
         <f t="shared" si="22"/>
@@ -12834,23 +12878,23 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B237">
         <f t="shared" si="20"/>
-        <v>0.87008699110871124</v>
+        <v>0.85772861000027201</v>
       </c>
       <c r="C237">
         <f t="shared" si="21"/>
-        <v>-3.9062499999997094E-3</v>
+        <v>7.812500000000392E-3</v>
       </c>
       <c r="D237">
         <f t="shared" si="18"/>
-        <v>0.99993332348043173</v>
+        <v>0.99956414775224123</v>
       </c>
       <c r="E237">
         <f t="shared" si="19"/>
-        <v>0.86618074110871157</v>
+        <v>0.86554111000027245</v>
       </c>
       <c r="F237">
         <f t="shared" si="22"/>
@@ -12863,23 +12907,23 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B238">
         <f t="shared" si="20"/>
-        <v>0.88192126434835483</v>
+        <v>0.87008699110871124</v>
       </c>
       <c r="C238">
         <f t="shared" si="21"/>
-        <v>-1.5624999999999811E-2</v>
+        <v>-3.9062499999997094E-3</v>
       </c>
       <c r="D238">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0.99993332348043173</v>
       </c>
       <c r="E238">
         <f t="shared" si="19"/>
-        <v>0.86629626434835505</v>
+        <v>0.86618074110871157</v>
       </c>
       <c r="F238">
         <f t="shared" si="22"/>
@@ -12892,23 +12936,23 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B239">
         <f t="shared" si="20"/>
-        <v>0.8932243011955151</v>
+        <v>0.88192126434835483</v>
       </c>
       <c r="C239">
         <f t="shared" si="21"/>
-        <v>-2.7343749999999913E-2</v>
+        <v>-1.5624999999999811E-2</v>
       </c>
       <c r="D239">
         <f t="shared" si="18"/>
-        <v>0.99976006294269737</v>
+        <v>1</v>
       </c>
       <c r="E239">
         <f t="shared" si="19"/>
-        <v>0.86588055119551521</v>
+        <v>0.86629626434835505</v>
       </c>
       <c r="F239">
         <f t="shared" si="22"/>
@@ -12921,23 +12965,23 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B240">
         <f t="shared" si="20"/>
-        <v>0.90398929312344312</v>
+        <v>0.8932243011955151</v>
       </c>
       <c r="C240">
         <f t="shared" si="21"/>
-        <v>-3.9062500000000007E-2</v>
+        <v>-2.7343749999999913E-2</v>
       </c>
       <c r="D240">
         <f t="shared" si="18"/>
-        <v>0.99920958263282933</v>
+        <v>0.99976006294269737</v>
       </c>
       <c r="E240">
         <f t="shared" si="19"/>
-        <v>0.86492679312344312</v>
+        <v>0.86588055119551521</v>
       </c>
       <c r="F240">
         <f t="shared" si="22"/>
@@ -12950,23 +12994,23 @@
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B241">
         <f t="shared" si="20"/>
-        <v>0.91420975570353036</v>
+        <v>0.90398929312344312</v>
       </c>
       <c r="C241">
         <f t="shared" si="21"/>
-        <v>-5.0781250000000111E-2</v>
+        <v>-3.9062500000000007E-2</v>
       </c>
       <c r="D241">
         <f t="shared" si="18"/>
-        <v>0.99834481645434436</v>
+        <v>0.99920958263282933</v>
       </c>
       <c r="E241">
         <f t="shared" si="19"/>
-        <v>0.86342850570353025</v>
+        <v>0.86492679312344312</v>
       </c>
       <c r="F241">
         <f t="shared" si="22"/>
@@ -12979,52 +13023,52 @@
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B242">
         <f t="shared" si="20"/>
-        <v>0.92387953251128652</v>
+        <v>0.91420975570353036</v>
       </c>
       <c r="C242">
         <f t="shared" si="21"/>
-        <v>-6.2499999999999646E-2</v>
+        <v>-5.0781250000000111E-2</v>
       </c>
       <c r="D242">
         <f t="shared" si="18"/>
-        <v>0.99716221110524661</v>
+        <v>0.99834481645434436</v>
       </c>
       <c r="E242">
         <f t="shared" si="19"/>
-        <v>0.86137953251128685</v>
+        <v>0.86342850570353025</v>
       </c>
       <c r="F242">
         <f t="shared" si="22"/>
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G242">
         <f t="shared" si="23"/>
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B243">
         <f t="shared" si="20"/>
-        <v>0.93299279883473896</v>
+        <v>0.92387953251128652</v>
       </c>
       <c r="C243">
         <f t="shared" si="21"/>
-        <v>-7.4218749999999764E-2</v>
+        <v>-6.2499999999999646E-2</v>
       </c>
       <c r="D243">
         <f t="shared" si="18"/>
-        <v>0.9956584047379714</v>
+        <v>0.99716221110524661</v>
       </c>
       <c r="E243">
         <f t="shared" si="19"/>
-        <v>0.85877404883473918</v>
+        <v>0.86137953251128685</v>
       </c>
       <c r="F243">
         <f t="shared" si="22"/>
@@ -13037,27 +13081,27 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B244">
         <f t="shared" si="20"/>
-        <v>0.94154406518302081</v>
+        <v>0.93299279883473896</v>
       </c>
       <c r="C244">
         <f t="shared" si="21"/>
-        <v>-8.5937499999999847E-2</v>
+        <v>-7.4218749999999764E-2</v>
       </c>
       <c r="D244">
         <f t="shared" si="18"/>
-        <v>0.99383022898443696</v>
+        <v>0.9956584047379714</v>
       </c>
       <c r="E244">
         <f t="shared" si="19"/>
-        <v>0.85560656518302092</v>
+        <v>0.85877404883473918</v>
       </c>
       <c r="F244">
         <f t="shared" si="22"/>
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G244">
         <f t="shared" si="23"/>
@@ -13066,23 +13110,23 @@
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B245">
         <f t="shared" si="20"/>
-        <v>0.94952818059303667</v>
+        <v>0.94154406518302081</v>
       </c>
       <c r="C245">
         <f t="shared" si="21"/>
-        <v>-9.7656249999999958E-2</v>
+        <v>-8.5937499999999847E-2</v>
       </c>
       <c r="D245">
         <f t="shared" si="18"/>
-        <v>0.99167471086455128</v>
+        <v>0.99383022898443696</v>
       </c>
       <c r="E245">
         <f t="shared" si="19"/>
-        <v>0.85187193059303667</v>
+        <v>0.85560656518302092</v>
       </c>
       <c r="F245">
         <f t="shared" si="22"/>
@@ -13090,32 +13134,32 @@
       </c>
       <c r="G245">
         <f t="shared" si="23"/>
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B246">
         <f t="shared" si="20"/>
-        <v>0.95694033573220882</v>
+        <v>0.94952818059303667</v>
       </c>
       <c r="C246">
         <f t="shared" si="21"/>
-        <v>-0.10937500000000006</v>
+        <v>-9.7656249999999958E-2</v>
       </c>
       <c r="D246">
         <f t="shared" si="18"/>
-        <v>0.98918907457702365</v>
+        <v>0.99167471086455128</v>
       </c>
       <c r="E246">
         <f t="shared" si="19"/>
-        <v>0.84756533573220882</v>
+        <v>0.85187193059303667</v>
       </c>
       <c r="F246">
         <f t="shared" si="22"/>
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G246">
         <f t="shared" si="23"/>
@@ -13124,23 +13168,23 @@
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B247">
         <f t="shared" si="20"/>
-        <v>0.96377606579543984</v>
+        <v>0.95694033573220882</v>
       </c>
       <c r="C247">
         <f t="shared" si="21"/>
-        <v>-0.1210937499999996</v>
+        <v>-0.10937500000000006</v>
       </c>
       <c r="D247">
         <f t="shared" si="18"/>
-        <v>0.98637074317140361</v>
+        <v>0.98918907457702365</v>
       </c>
       <c r="E247">
         <f t="shared" si="19"/>
-        <v>0.84268231579544028</v>
+        <v>0.84756533573220882</v>
       </c>
       <c r="F247">
         <f t="shared" si="22"/>
@@ -13148,61 +13192,61 @@
       </c>
       <c r="G247">
         <f t="shared" si="23"/>
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B248">
         <f t="shared" si="20"/>
-        <v>0.97003125319454386</v>
+        <v>0.96377606579543984</v>
       </c>
       <c r="C248">
         <f t="shared" si="21"/>
-        <v>-0.13281249999999969</v>
+        <v>-0.1210937499999996</v>
       </c>
       <c r="D248">
         <f t="shared" si="18"/>
-        <v>0.98321734010033879</v>
+        <v>0.98637074317140361</v>
       </c>
       <c r="E248">
         <f t="shared" si="19"/>
-        <v>0.8372187531945442</v>
+        <v>0.84268231579544028</v>
       </c>
       <c r="F248">
         <f t="shared" si="22"/>
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G248">
         <f t="shared" si="23"/>
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B249">
         <f t="shared" si="20"/>
-        <v>0.97570213003852846</v>
+        <v>0.97003125319454386</v>
       </c>
       <c r="C249">
         <f t="shared" si="21"/>
-        <v>-0.14453124999999981</v>
+        <v>-0.13281249999999969</v>
       </c>
       <c r="D249">
         <f t="shared" si="18"/>
-        <v>0.97972669065112028</v>
+        <v>0.98321734010033879</v>
       </c>
       <c r="E249">
         <f t="shared" si="19"/>
-        <v>0.83117088003852868</v>
+        <v>0.8372187531945442</v>
       </c>
       <c r="F249">
         <f t="shared" si="22"/>
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G249">
         <f t="shared" si="23"/>
@@ -13211,267 +13255,300 @@
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B250">
         <f t="shared" si="20"/>
-        <v>0.98078528040323032</v>
+        <v>0.97570213003852846</v>
       </c>
       <c r="C250">
         <f t="shared" si="21"/>
-        <v>-0.15624999999999992</v>
+        <v>-0.14453124999999981</v>
       </c>
       <c r="D250">
         <f t="shared" si="18"/>
-        <v>0.97589682325564564</v>
+        <v>0.97972669065112028</v>
       </c>
       <c r="E250">
         <f t="shared" si="19"/>
-        <v>0.82453528040323043</v>
+        <v>0.83117088003852868</v>
       </c>
       <c r="F250">
         <f t="shared" si="22"/>
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G250">
         <f t="shared" si="23"/>
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B251">
         <f t="shared" si="20"/>
-        <v>0.98527764238894111</v>
+        <v>0.98078528040323032</v>
       </c>
       <c r="C251">
         <f t="shared" si="21"/>
-        <v>-0.16796874999999997</v>
+        <v>-0.15624999999999992</v>
       </c>
       <c r="D251">
         <f t="shared" si="18"/>
-        <v>0.97172597067802013</v>
+        <v>0.97589682325564564</v>
       </c>
       <c r="E251">
         <f t="shared" si="19"/>
-        <v>0.81730889238894111</v>
+        <v>0.82453528040323043</v>
       </c>
       <c r="F251">
         <f t="shared" si="22"/>
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G251">
         <f t="shared" si="23"/>
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B252">
         <f t="shared" si="20"/>
-        <v>0.9891765099647809</v>
+        <v>0.98527764238894111</v>
       </c>
       <c r="C252">
         <f t="shared" si="21"/>
-        <v>-0.17968750000000006</v>
+        <v>-0.16796874999999997</v>
       </c>
       <c r="D252">
         <f t="shared" si="18"/>
-        <v>0.9672125710790721</v>
+        <v>0.97172597067802013</v>
       </c>
       <c r="E252">
         <f t="shared" si="19"/>
-        <v>0.8094890099647809</v>
+        <v>0.81730889238894111</v>
       </c>
       <c r="F252">
         <f t="shared" si="22"/>
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G252">
         <f t="shared" si="23"/>
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B253">
         <f t="shared" si="20"/>
-        <v>0.99247953459870997</v>
+        <v>0.9891765099647809</v>
       </c>
       <c r="C253">
         <f t="shared" si="21"/>
-        <v>-0.19140624999999961</v>
+        <v>-0.17968750000000006</v>
       </c>
       <c r="D253">
         <f t="shared" si="18"/>
-        <v>0.96235526895714674</v>
+        <v>0.9672125710790721</v>
       </c>
       <c r="E253">
         <f t="shared" si="19"/>
-        <v>0.8010732845987103</v>
+        <v>0.8094890099647809</v>
       </c>
       <c r="F253">
         <f t="shared" si="22"/>
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G253">
         <f t="shared" si="23"/>
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B254">
         <f t="shared" si="20"/>
-        <v>0.99518472667219693</v>
+        <v>0.99247953459870997</v>
       </c>
       <c r="C254">
         <f t="shared" si="21"/>
-        <v>-0.20312499999999975</v>
+        <v>-0.19140624999999961</v>
       </c>
       <c r="D254">
         <f t="shared" si="18"/>
-        <v>0.95715291596460927</v>
+        <v>0.96235526895714674</v>
       </c>
       <c r="E254">
         <f t="shared" si="19"/>
-        <v>0.79205972667219715</v>
+        <v>0.8010732845987103</v>
       </c>
       <c r="F254">
         <f t="shared" si="22"/>
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G254">
         <f t="shared" si="23"/>
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B255">
         <f t="shared" si="20"/>
-        <v>0.99729045667869021</v>
+        <v>0.99518472667219693</v>
       </c>
       <c r="C255">
         <f t="shared" si="21"/>
-        <v>-0.21484374999999994</v>
+        <v>-0.20312499999999975</v>
       </c>
       <c r="D255">
         <f t="shared" si="18"/>
-        <v>0.95160457159956824</v>
+        <v>0.95715291596460927</v>
       </c>
       <c r="E255">
         <f t="shared" si="19"/>
-        <v>0.78244670667869021</v>
+        <v>0.79205972667219715</v>
       </c>
       <c r="F255">
         <f t="shared" si="22"/>
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G255">
         <f t="shared" si="23"/>
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B256">
         <f t="shared" si="20"/>
-        <v>0.99879545620517241</v>
+        <v>0.99729045667869021</v>
       </c>
       <c r="C256">
         <f t="shared" si="21"/>
-        <v>-0.22656249999999994</v>
+        <v>-0.21484374999999994</v>
       </c>
       <c r="D256">
         <f t="shared" si="18"/>
-        <v>0.9457095037723966</v>
+        <v>0.95160457159956824</v>
       </c>
       <c r="E256">
         <f t="shared" si="19"/>
-        <v>0.77223295620517241</v>
+        <v>0.78244670667869021</v>
       </c>
       <c r="F256">
         <f t="shared" si="22"/>
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G256">
         <f t="shared" si="23"/>
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B257">
         <f t="shared" si="20"/>
-        <v>0.99969881869620425</v>
+        <v>0.99879545620517241</v>
       </c>
       <c r="C257">
         <f t="shared" si="21"/>
-        <v>-0.23828125</v>
+        <v>-0.22656249999999994</v>
       </c>
       <c r="D257">
         <f t="shared" si="18"/>
-        <v>0.93946718924671657</v>
+        <v>0.9457095037723966</v>
       </c>
       <c r="E257">
         <f t="shared" si="19"/>
-        <v>0.76141756869620425</v>
+        <v>0.77223295620517241</v>
       </c>
       <c r="F257">
         <f t="shared" si="22"/>
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G257">
         <f t="shared" si="23"/>
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B258">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0.99969881869620425</v>
       </c>
       <c r="C258">
         <f t="shared" si="21"/>
-        <v>-0.25</v>
+        <v>-0.23828125</v>
       </c>
       <c r="D258">
         <f t="shared" si="18"/>
-        <v>0.93287731395457685</v>
+        <v>0.93946718924671657</v>
       </c>
       <c r="E258">
         <f t="shared" si="19"/>
-        <v>0.75</v>
+        <v>0.76141756869620425</v>
       </c>
       <c r="F258">
         <f t="shared" si="22"/>
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G258">
         <f t="shared" si="23"/>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>320</v>
+      </c>
+      <c r="B259">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="C259">
+        <f t="shared" si="21"/>
+        <v>-0.25</v>
+      </c>
+      <c r="D259">
+        <f t="shared" si="18"/>
+        <v>0.93287731395457685</v>
+      </c>
+      <c r="E259">
+        <f t="shared" si="19"/>
+        <v>0.75</v>
+      </c>
+      <c r="F259">
+        <f t="shared" si="22"/>
+        <v>238</v>
+      </c>
+      <c r="G259">
+        <f t="shared" si="23"/>
         <v>198</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;1#&amp;"TIM Sans"&amp;8&amp;K4472C4TIM - Uso Interno - Tutti i diritti riservati.</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>